--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>897206.4904945983</v>
+        <v>893350.1303674574</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33341527.1439098</v>
+        <v>33341527.14390982</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E8" t="n">
-        <v>2.066753047649844</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.87365309072685</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.262548922260277</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="F9" t="n">
-        <v>2.873653090726852</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G9" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H9" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.873653090726852</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.87365309072685</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>409.067682515089</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>266.7289945454062</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4776774906691</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>159.6624209409572</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T12" t="n">
         <v>124.7684462029416</v>
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>24.47529830799473</v>
       </c>
       <c r="E13" t="n">
-        <v>108.1735136048171</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0808326643772</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>130.9056079325998</v>
       </c>
       <c r="I13" t="n">
-        <v>62.07531532710155</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,13 +1609,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>120.5858768842797</v>
       </c>
       <c r="U14" t="n">
         <v>256.4776774906691</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>157.7628028833412</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T15" t="n">
         <v>124.7684462029416</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>109.9145852433161</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>59.6904973020317</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9056079325998</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.07531532710155</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.7568353184161</v>
       </c>
       <c r="T16" t="n">
         <v>239.7694802007374</v>
@@ -1849,19 +1849,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>220.5364465565306</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.4788259944166</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>266.7289945454062</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.40455075336933</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4776774906691</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>108.9481235364526</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T18" t="n">
         <v>124.7684462029416</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>95.33176747733086</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0808326643772</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9056079325998</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.07531532710155</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7568353184161</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.7694802007374</v>
@@ -2061,10 +2061,10 @@
         <v>275.6020600361501</v>
       </c>
       <c r="V19" t="n">
-        <v>149.9052696526822</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>235.9101237750513</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.4788259944166</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.7289945454062</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.40455075336933</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>208.4620566739222</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T21" t="n">
         <v>124.7684462029416</v>
@@ -2247,10 +2247,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>58.56004054358424</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.07531532710155</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7568353184161</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.7694802007374</v>
+        <v>160.1612641802069</v>
       </c>
       <c r="U22" t="n">
         <v>275.6020600361501</v>
@@ -2320,22 +2320,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4788259944166</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.7289945454062</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>30.89800696830981</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.5272988631047</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>348.2965816892869</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T24" t="n">
         <v>124.7684462029416</v>
@@ -2496,7 +2496,7 @@
         <v>130.9056079325998</v>
       </c>
       <c r="I25" t="n">
-        <v>62.07531532710155</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>239.7694802007374</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6020600361505</v>
+        <v>275.6020600361501</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>127.4945678792627</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4788259944166</v>
+        <v>212.3944007921575</v>
       </c>
       <c r="H26" t="n">
-        <v>266.7289945454062</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.40455075336933</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.5272988631047</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4776774906691</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T27" t="n">
         <v>124.7684462029416</v>
@@ -2733,7 +2733,7 @@
         <v>130.9056079325998</v>
       </c>
       <c r="I28" t="n">
-        <v>62.07531532710155</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695718</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2794,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>130.4946047186879</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4788259944166</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>266.7289945454062</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.40455075336933</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T29" t="n">
-        <v>209.5272988631047</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U29" t="n">
         <v>256.4776774906691</v>
       </c>
       <c r="V29" t="n">
-        <v>46.5664526376444</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T30" t="n">
         <v>124.7684462029416</v>
@@ -2970,7 +2970,7 @@
         <v>130.9056079325998</v>
       </c>
       <c r="I31" t="n">
-        <v>62.07531532710155</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>239.7694802007374</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6020600361501</v>
+        <v>275.6020600361505</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.4788259944166</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.40455075336933</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T32" t="n">
-        <v>140.825855305006</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U32" t="n">
         <v>256.4776774906691</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>373.6520682839727</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T33" t="n">
         <v>124.7684462029416</v>
@@ -3207,7 +3207,7 @@
         <v>130.9056079325998</v>
       </c>
       <c r="I34" t="n">
-        <v>62.07531532710155</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>239.7694802007374</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6020600361496</v>
+        <v>275.602060036151</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>218.6922646510903</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.7289945454062</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.5272988631047</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4776774906691</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>305.6741040709227</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T36" t="n">
         <v>124.7684462029416</v>
@@ -3426,13 +3426,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>85.23428501591076</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3486,10 +3486,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>61.64165245609779</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>409.1544024756142</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>255.243982729775</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4788259944166</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.7289945454062</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T39" t="n">
         <v>124.7684462029416</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>91.22787838107682</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1612641802078</v>
+        <v>239.7694802007374</v>
       </c>
       <c r="U40" t="n">
         <v>275.6020600361501</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>270.6484626790991</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4776774906691</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>12.28595174254256</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T42" t="n">
         <v>124.7684462029416</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0808326643772</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.9056079325998</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.7694802007374</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6020600361501</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>252.4046741748948</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.5372579585037</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>209.5542865989286</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4788259944166</v>
+        <v>220.2037936254702</v>
       </c>
       <c r="H44" t="n">
-        <v>266.7289945454062</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4776774906691</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.88821646114381</v>
+        <v>43.88821646114383</v>
       </c>
       <c r="T45" t="n">
         <v>124.7684462029416</v>
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>84.61099684996337</v>
+        <v>62.46616799186805</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.9056079325998</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.348633254841271</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="C8" t="n">
-        <v>2.348633254841271</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="D8" t="n">
-        <v>2.348633254841271</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.163683803403903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J8" t="n">
         <v>1.160310701713749</v>
       </c>
       <c r="K8" t="n">
-        <v>2.508138455589629</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L8" t="n">
         <v>4.180237967355345</v>
       </c>
       <c r="M8" t="n">
-        <v>6.040770853278584</v>
+        <v>6.040770853278585</v>
       </c>
       <c r="N8" t="n">
-        <v>7.931409106423307</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O8" t="n">
-        <v>9.716685196678938</v>
+        <v>9.716685196678936</v>
       </c>
       <c r="P8" t="n">
         <v>11.24037703589</v>
@@ -4837,19 +4837,19 @@
         <v>13.0501956890411</v>
       </c>
       <c r="U8" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="V8" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="W8" t="n">
-        <v>12.23514514047847</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="X8" t="n">
-        <v>8.939641178599405</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.644137216720338</v>
+        <v>13.0501956890411</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="C9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="D9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="E9" t="n">
-        <v>9.75469172716204</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="F9" t="n">
-        <v>6.852011837538957</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="G9" t="n">
-        <v>3.55650787565989</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I9" t="n">
-        <v>1.255807204432016</v>
+        <v>1.255807204432012</v>
       </c>
       <c r="J9" t="n">
-        <v>4.48573063746969</v>
+        <v>4.485730637469685</v>
       </c>
       <c r="K9" t="n">
-        <v>5.401192174021341</v>
+        <v>5.401192174021337</v>
       </c>
       <c r="L9" t="n">
-        <v>6.632143184885604</v>
+        <v>6.6321431848856</v>
       </c>
       <c r="M9" t="n">
-        <v>8.068604954355928</v>
+        <v>8.068604954355925</v>
       </c>
       <c r="N9" t="n">
-        <v>9.543085592538736</v>
+        <v>9.543085592538732</v>
       </c>
       <c r="O9" t="n">
-        <v>10.89194731330136</v>
+        <v>10.89194731330135</v>
       </c>
       <c r="P9" t="n">
-        <v>11.97452776196328</v>
+        <v>11.97452776196327</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.69820412233483</v>
+        <v>12.69820412233482</v>
       </c>
       <c r="R9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="T9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="U9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="V9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="W9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="X9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.75469172716204</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C10" t="n">
-        <v>6.459187765282973</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D10" t="n">
-        <v>3.163683803403905</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E10" t="n">
-        <v>3.163683803403905</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F10" t="n">
-        <v>3.163683803403905</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G10" t="n">
-        <v>3.163683803403905</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J10" t="n">
         <v>0.5970352923692028</v>
       </c>
       <c r="K10" t="n">
-        <v>1.149238072150546</v>
+        <v>3.826958725406876</v>
       </c>
       <c r="L10" t="n">
-        <v>1.855867513507673</v>
+        <v>7.056882158444549</v>
       </c>
       <c r="M10" t="n">
-        <v>2.600909182660231</v>
+        <v>10.28680559148222</v>
       </c>
       <c r="N10" t="n">
-        <v>3.360425389928084</v>
+        <v>11.40555606409453</v>
       </c>
       <c r="O10" t="n">
-        <v>6.590348822965758</v>
+        <v>12.07735957113993</v>
       </c>
       <c r="P10" t="n">
-        <v>9.820272256003433</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="R10" t="n">
-        <v>9.75469172716204</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="S10" t="n">
-        <v>9.75469172716204</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="T10" t="n">
-        <v>9.75469172716204</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="U10" t="n">
-        <v>9.75469172716204</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="V10" t="n">
-        <v>9.75469172716204</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="W10" t="n">
-        <v>9.75469172716204</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="X10" t="n">
-        <v>9.75469172716204</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.75469172716204</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>751.1302510975611</v>
+        <v>1345.484238700367</v>
       </c>
       <c r="C11" t="n">
-        <v>751.1302510975611</v>
+        <v>1345.484238700367</v>
       </c>
       <c r="D11" t="n">
-        <v>751.1302510975611</v>
+        <v>909.5744538748118</v>
       </c>
       <c r="E11" t="n">
-        <v>317.3555062558563</v>
+        <v>475.7997090331069</v>
       </c>
       <c r="F11" t="n">
-        <v>317.3555062558563</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="G11" t="n">
-        <v>317.3555062558563</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H11" t="n">
         <v>47.93227944231469</v>
       </c>
       <c r="I11" t="n">
-        <v>120.2329046777273</v>
+        <v>120.232904677728</v>
       </c>
       <c r="J11" t="n">
-        <v>280.3028279256597</v>
+        <v>280.3028279256603</v>
       </c>
       <c r="K11" t="n">
-        <v>520.2061490272864</v>
+        <v>520.2061490272868</v>
       </c>
       <c r="L11" t="n">
-        <v>817.8274325566238</v>
+        <v>817.827432556624</v>
       </c>
       <c r="M11" t="n">
         <v>1148.988455965022</v>
@@ -5065,28 +5065,28 @@
         <v>2278.143982086745</v>
       </c>
       <c r="R11" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S11" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="T11" t="n">
-        <v>2396.613972115735</v>
+        <v>2184.970235890376</v>
       </c>
       <c r="U11" t="n">
-        <v>2396.613972115735</v>
+        <v>1925.90187478869</v>
       </c>
       <c r="V11" t="n">
-        <v>2396.613972115735</v>
+        <v>1764.626702121056</v>
       </c>
       <c r="W11" t="n">
-        <v>1991.758517526768</v>
+        <v>1764.626702121056</v>
       </c>
       <c r="X11" t="n">
-        <v>1572.616054106079</v>
+        <v>1345.484238700367</v>
       </c>
       <c r="Y11" t="n">
-        <v>1164.329930405732</v>
+        <v>1345.484238700367</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>47.93227944231469</v>
       </c>
       <c r="I12" t="n">
-        <v>82.67495225820322</v>
+        <v>82.67495225820321</v>
       </c>
       <c r="J12" t="n">
-        <v>178.0115019559172</v>
+        <v>178.0115019559171</v>
       </c>
       <c r="K12" t="n">
-        <v>340.9568503715309</v>
+        <v>340.9568503715308</v>
       </c>
       <c r="L12" t="n">
-        <v>560.0569800212839</v>
+        <v>560.0569800212838</v>
       </c>
       <c r="M12" t="n">
-        <v>815.7364970370647</v>
+        <v>815.7364970370646</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.183090070106</v>
+        <v>1052.617859809054</v>
       </c>
       <c r="O12" t="n">
-        <v>1318.270449591572</v>
+        <v>1292.705219330519</v>
       </c>
       <c r="P12" t="n">
         <v>1485.396491822004</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1032.003552471463</v>
+        <v>786.6117978048751</v>
       </c>
       <c r="C13" t="n">
-        <v>859.441840954688</v>
+        <v>614.0500862881</v>
       </c>
       <c r="D13" t="n">
-        <v>693.5638481562107</v>
+        <v>589.327562744671</v>
       </c>
       <c r="E13" t="n">
-        <v>584.2976727978096</v>
+        <v>419.5695589954083</v>
       </c>
       <c r="F13" t="n">
-        <v>407.5906187595658</v>
+        <v>242.8625049571646</v>
       </c>
       <c r="G13" t="n">
         <v>242.8625049571646</v>
@@ -5208,13 +5208,13 @@
         <v>1111.354166266284</v>
       </c>
       <c r="M13" t="n">
-        <v>1441.67508853748</v>
+        <v>1441.675088537479</v>
       </c>
       <c r="N13" t="n">
-        <v>1571.133753296892</v>
+        <v>1571.133753296891</v>
       </c>
       <c r="O13" t="n">
-        <v>1690.709783694286</v>
+        <v>1690.709783694285</v>
       </c>
       <c r="P13" t="n">
         <v>2140.534629067182</v>
@@ -5223,7 +5223,7 @@
         <v>2379.567049930382</v>
       </c>
       <c r="R13" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S13" t="n">
         <v>2252.415148561779</v>
@@ -5241,10 +5241,10 @@
         <v>1451.241841876342</v>
       </c>
       <c r="X13" t="n">
-        <v>1451.241841876342</v>
+        <v>1205.850087209754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1223.82217119045</v>
+        <v>978.4304165238623</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1189.272723914138</v>
+        <v>317.3555062558563</v>
       </c>
       <c r="C14" t="n">
-        <v>751.1302510975612</v>
+        <v>317.3555062558563</v>
       </c>
       <c r="D14" t="n">
-        <v>751.1302510975612</v>
+        <v>317.3555062558563</v>
       </c>
       <c r="E14" t="n">
-        <v>317.3555062558564</v>
+        <v>317.3555062558563</v>
       </c>
       <c r="F14" t="n">
-        <v>317.3555062558564</v>
+        <v>317.3555062558563</v>
       </c>
       <c r="G14" t="n">
-        <v>317.3555062558564</v>
+        <v>317.3555062558563</v>
       </c>
       <c r="H14" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I14" t="n">
-        <v>120.2329046777282</v>
+        <v>120.2329046777279</v>
       </c>
       <c r="J14" t="n">
-        <v>280.3028279256606</v>
+        <v>280.3028279256602</v>
       </c>
       <c r="K14" t="n">
-        <v>520.2061490272872</v>
+        <v>520.2061490272868</v>
       </c>
       <c r="L14" t="n">
-        <v>817.8274325566244</v>
+        <v>817.827432556624</v>
       </c>
       <c r="M14" t="n">
         <v>1148.988455965022</v>
@@ -5293,37 +5293,37 @@
         <v>1485.508010950358</v>
       </c>
       <c r="O14" t="n">
-        <v>1803.273884151909</v>
+        <v>1803.273884151908</v>
       </c>
       <c r="P14" t="n">
-        <v>2074.479705156126</v>
+        <v>2074.479705156125</v>
       </c>
       <c r="Q14" t="n">
-        <v>2278.143982086746</v>
+        <v>2278.143982086745</v>
       </c>
       <c r="R14" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S14" t="n">
-        <v>2396.613972115735</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="T14" t="n">
-        <v>2396.613972115735</v>
+        <v>2235.007479552452</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.545611014049</v>
+        <v>1975.939118450767</v>
       </c>
       <c r="V14" t="n">
-        <v>1774.928660947875</v>
+        <v>1975.939118450767</v>
       </c>
       <c r="W14" t="n">
-        <v>1774.928660947875</v>
+        <v>1571.0836638618</v>
       </c>
       <c r="X14" t="n">
-        <v>1615.572294399046</v>
+        <v>1151.941200441111</v>
       </c>
       <c r="Y14" t="n">
-        <v>1615.572294399046</v>
+        <v>743.6550767407641</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>164.0799184018023</v>
       </c>
       <c r="G15" t="n">
-        <v>79.7244037603526</v>
+        <v>79.72440376035259</v>
       </c>
       <c r="H15" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I15" t="n">
-        <v>82.67495225820323</v>
+        <v>82.67495225820321</v>
       </c>
       <c r="J15" t="n">
-        <v>152.4462716948652</v>
+        <v>178.0115019559171</v>
       </c>
       <c r="K15" t="n">
-        <v>315.3916201104789</v>
+        <v>340.9568503715308</v>
       </c>
       <c r="L15" t="n">
-        <v>534.4917497602319</v>
+        <v>560.0569800212838</v>
       </c>
       <c r="M15" t="n">
-        <v>790.1712667760127</v>
+        <v>815.7364970370646</v>
       </c>
       <c r="N15" t="n">
-        <v>1052.617859809054</v>
+        <v>1078.183090070106</v>
       </c>
       <c r="O15" t="n">
         <v>1292.705219330519</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>652.4247021303972</v>
+        <v>508.2258785764407</v>
       </c>
       <c r="C16" t="n">
-        <v>479.8629906136222</v>
+        <v>335.6641670596657</v>
       </c>
       <c r="D16" t="n">
-        <v>479.8629906136222</v>
+        <v>335.6641670596657</v>
       </c>
       <c r="E16" t="n">
-        <v>479.8629906136222</v>
+        <v>224.6393334805585</v>
       </c>
       <c r="F16" t="n">
-        <v>303.1559365753784</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8625049571646</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H16" t="n">
-        <v>110.6346181565587</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I16" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="J16" t="n">
-        <v>194.323052103823</v>
+        <v>107.7433669391331</v>
       </c>
       <c r="K16" t="n">
-        <v>567.3694966723018</v>
+        <v>206.0313569364764</v>
       </c>
       <c r="L16" t="n">
-        <v>1111.354166266284</v>
+        <v>331.8061447624977</v>
       </c>
       <c r="M16" t="n">
-        <v>1243.966045102293</v>
+        <v>747.9398110183859</v>
       </c>
       <c r="N16" t="n">
-        <v>1373.424709861705</v>
+        <v>1319.657278935442</v>
       </c>
       <c r="O16" t="n">
-        <v>1690.709783694286</v>
+        <v>1858.902558558618</v>
       </c>
       <c r="P16" t="n">
-        <v>2140.534629067183</v>
+        <v>2308.727403931514</v>
       </c>
       <c r="Q16" t="n">
-        <v>2379.567049930383</v>
+        <v>2379.567049930382</v>
       </c>
       <c r="R16" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S16" t="n">
-        <v>2396.613972115735</v>
+        <v>2252.415148561779</v>
       </c>
       <c r="T16" t="n">
-        <v>2154.422577973576</v>
+        <v>2010.22375441962</v>
       </c>
       <c r="U16" t="n">
-        <v>1876.036658745142</v>
+        <v>1731.837835191185</v>
       </c>
       <c r="V16" t="n">
-        <v>1589.081150615572</v>
+        <v>1444.882327061616</v>
       </c>
       <c r="W16" t="n">
-        <v>1317.054746201864</v>
+        <v>1172.855922647907</v>
       </c>
       <c r="X16" t="n">
-        <v>1071.662991535276</v>
+        <v>927.4641679813196</v>
       </c>
       <c r="Y16" t="n">
-        <v>844.2433208493844</v>
+        <v>700.0444972954278</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1582.838970273747</v>
+        <v>1572.616054106078</v>
       </c>
       <c r="C17" t="n">
-        <v>1144.69649745717</v>
+        <v>1134.473581289501</v>
       </c>
       <c r="D17" t="n">
-        <v>1144.69649745717</v>
+        <v>698.5637964639459</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.69649745717</v>
+        <v>475.7997090331069</v>
       </c>
       <c r="F17" t="n">
-        <v>716.8290678663782</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="G17" t="n">
-        <v>317.3555062558564</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H17" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I17" t="n">
-        <v>120.2329046777276</v>
+        <v>120.2329046777275</v>
       </c>
       <c r="J17" t="n">
-        <v>280.30282792566</v>
+        <v>280.3028279256599</v>
       </c>
       <c r="K17" t="n">
-        <v>520.2061490272866</v>
+        <v>520.2061490272863</v>
       </c>
       <c r="L17" t="n">
-        <v>817.827432556624</v>
+        <v>817.8274325566235</v>
       </c>
       <c r="M17" t="n">
-        <v>1148.988455965022</v>
+        <v>1148.988455965021</v>
       </c>
       <c r="N17" t="n">
         <v>1485.508010950358</v>
@@ -5533,34 +5533,34 @@
         <v>1803.273884151908</v>
       </c>
       <c r="P17" t="n">
-        <v>2074.479705156126</v>
+        <v>2074.479705156125</v>
       </c>
       <c r="Q17" t="n">
         <v>2278.143982086745</v>
       </c>
       <c r="R17" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S17" t="n">
-        <v>2356.81139559718</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="T17" t="n">
-        <v>2356.81139559718</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="U17" t="n">
-        <v>2097.743034495494</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="V17" t="n">
-        <v>2097.743034495494</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="W17" t="n">
-        <v>1692.887579906527</v>
+        <v>1991.758517526767</v>
       </c>
       <c r="X17" t="n">
-        <v>1582.838970273747</v>
+        <v>1572.616054106078</v>
       </c>
       <c r="Y17" t="n">
-        <v>1582.838970273747</v>
+        <v>1572.616054106078</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>164.0799184018023</v>
       </c>
       <c r="G18" t="n">
-        <v>79.7244037603526</v>
+        <v>79.72440376035259</v>
       </c>
       <c r="H18" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I18" t="n">
-        <v>57.10972199715086</v>
+        <v>82.67495225820321</v>
       </c>
       <c r="J18" t="n">
-        <v>152.4462716948649</v>
+        <v>178.0115019559171</v>
       </c>
       <c r="K18" t="n">
-        <v>315.3916201104786</v>
+        <v>340.9568503715308</v>
       </c>
       <c r="L18" t="n">
-        <v>534.4917497602316</v>
+        <v>560.0569800212838</v>
       </c>
       <c r="M18" t="n">
-        <v>790.1712667760125</v>
+        <v>815.7364970370646</v>
       </c>
       <c r="N18" t="n">
-        <v>1052.617859809054</v>
+        <v>1078.183090070106</v>
       </c>
       <c r="O18" t="n">
-        <v>1292.705219330519</v>
+        <v>1318.270449591571</v>
       </c>
       <c r="P18" t="n">
-        <v>1485.396491822004</v>
+        <v>1510.961722083056</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.205504514185</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.788326824081</v>
+        <v>652.4247021303963</v>
       </c>
       <c r="C19" t="n">
-        <v>743.2266153073059</v>
+        <v>479.8629906136213</v>
       </c>
       <c r="D19" t="n">
-        <v>577.3486225088286</v>
+        <v>313.984997815144</v>
       </c>
       <c r="E19" t="n">
-        <v>407.5906187595658</v>
+        <v>144.2269940658812</v>
       </c>
       <c r="F19" t="n">
-        <v>407.5906187595658</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8625049571646</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H19" t="n">
-        <v>110.6346181565587</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I19" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="J19" t="n">
-        <v>194.323052103823</v>
+        <v>194.3230521038229</v>
       </c>
       <c r="K19" t="n">
         <v>567.3694966723018</v>
       </c>
       <c r="L19" t="n">
-        <v>1111.354166266284</v>
+        <v>849.5793425205579</v>
       </c>
       <c r="M19" t="n">
-        <v>1243.966045102293</v>
+        <v>1441.675088537479</v>
       </c>
       <c r="N19" t="n">
-        <v>1373.424709861705</v>
+        <v>1571.133753296891</v>
       </c>
       <c r="O19" t="n">
-        <v>1690.709783694286</v>
+        <v>1690.709783694285</v>
       </c>
       <c r="P19" t="n">
         <v>2140.534629067182</v>
@@ -5697,28 +5697,28 @@
         <v>2379.567049930382</v>
       </c>
       <c r="R19" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S19" t="n">
-        <v>2252.415148561779</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="T19" t="n">
-        <v>2010.22375441962</v>
+        <v>2154.422577973575</v>
       </c>
       <c r="U19" t="n">
-        <v>1731.837835191186</v>
+        <v>1876.036658745141</v>
       </c>
       <c r="V19" t="n">
-        <v>1580.418370895547</v>
+        <v>1589.081150615571</v>
       </c>
       <c r="W19" t="n">
-        <v>1580.418370895547</v>
+        <v>1317.054746201863</v>
       </c>
       <c r="X19" t="n">
-        <v>1335.02661622896</v>
+        <v>1071.662991535275</v>
       </c>
       <c r="Y19" t="n">
-        <v>1107.606945543068</v>
+        <v>844.2433208493835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1783.626711516944</v>
+        <v>716.8290678663782</v>
       </c>
       <c r="C20" t="n">
-        <v>1345.484238700367</v>
+        <v>716.8290678663782</v>
       </c>
       <c r="D20" t="n">
-        <v>909.5744538748118</v>
+        <v>716.8290678663782</v>
       </c>
       <c r="E20" t="n">
-        <v>475.799709033107</v>
+        <v>716.8290678663782</v>
       </c>
       <c r="F20" t="n">
-        <v>47.9322794423147</v>
+        <v>716.8290678663782</v>
       </c>
       <c r="G20" t="n">
-        <v>47.9322794423147</v>
+        <v>317.3555062558563</v>
       </c>
       <c r="H20" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I20" t="n">
-        <v>120.2329046777276</v>
+        <v>120.2329046777275</v>
       </c>
       <c r="J20" t="n">
-        <v>280.30282792566</v>
+        <v>280.3028279256599</v>
       </c>
       <c r="K20" t="n">
-        <v>520.2061490272866</v>
+        <v>520.2061490272864</v>
       </c>
       <c r="L20" t="n">
-        <v>817.827432556624</v>
+        <v>817.8274325566238</v>
       </c>
       <c r="M20" t="n">
         <v>1148.988455965022</v>
@@ -5767,37 +5767,37 @@
         <v>1485.508010950358</v>
       </c>
       <c r="O20" t="n">
-        <v>1803.273884151909</v>
+        <v>1803.273884151908</v>
       </c>
       <c r="P20" t="n">
-        <v>2074.479705156126</v>
+        <v>2074.479705156125</v>
       </c>
       <c r="Q20" t="n">
-        <v>2278.143982086746</v>
+        <v>2278.143982086745</v>
       </c>
       <c r="R20" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S20" t="n">
-        <v>2356.81139559718</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="T20" t="n">
-        <v>2356.81139559718</v>
+        <v>2145.167659371821</v>
       </c>
       <c r="U20" t="n">
-        <v>2356.81139559718</v>
+        <v>2145.167659371821</v>
       </c>
       <c r="V20" t="n">
-        <v>1994.194445531007</v>
+        <v>1782.550709305648</v>
       </c>
       <c r="W20" t="n">
-        <v>1783.626711516944</v>
+        <v>1782.550709305648</v>
       </c>
       <c r="X20" t="n">
-        <v>1783.626711516944</v>
+        <v>1363.408245884958</v>
       </c>
       <c r="Y20" t="n">
-        <v>1783.626711516944</v>
+        <v>955.1221221846118</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>164.0799184018023</v>
       </c>
       <c r="G21" t="n">
-        <v>79.7244037603526</v>
+        <v>79.72440376035259</v>
       </c>
       <c r="H21" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I21" t="n">
-        <v>82.67495225820323</v>
+        <v>82.67495225820321</v>
       </c>
       <c r="J21" t="n">
-        <v>178.0115019559172</v>
+        <v>178.0115019559171</v>
       </c>
       <c r="K21" t="n">
-        <v>340.956850371531</v>
+        <v>340.9568503715308</v>
       </c>
       <c r="L21" t="n">
-        <v>534.4917497602316</v>
+        <v>560.0569800212838</v>
       </c>
       <c r="M21" t="n">
-        <v>790.1712667760125</v>
+        <v>815.7364970370646</v>
       </c>
       <c r="N21" t="n">
         <v>1052.617859809054</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>508.2258785764416</v>
+        <v>732.8370415450736</v>
       </c>
       <c r="C22" t="n">
-        <v>335.6641670596666</v>
+        <v>560.2753300282985</v>
       </c>
       <c r="D22" t="n">
-        <v>169.7861742611892</v>
+        <v>394.3973372298212</v>
       </c>
       <c r="E22" t="n">
-        <v>110.6346181565587</v>
+        <v>224.6393334805585</v>
       </c>
       <c r="F22" t="n">
-        <v>110.6346181565587</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="G22" t="n">
-        <v>110.6346181565587</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H22" t="n">
-        <v>110.6346181565587</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I22" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="J22" t="n">
-        <v>194.323052103823</v>
+        <v>107.7433669391331</v>
       </c>
       <c r="K22" t="n">
-        <v>567.3694966723018</v>
+        <v>206.0313569364764</v>
       </c>
       <c r="L22" t="n">
-        <v>1111.354166266284</v>
+        <v>750.0160265304587</v>
       </c>
       <c r="M22" t="n">
-        <v>1441.67508853748</v>
+        <v>1342.11177254738</v>
       </c>
       <c r="N22" t="n">
-        <v>1571.133753296892</v>
+        <v>1913.829240464437</v>
       </c>
       <c r="O22" t="n">
-        <v>1690.709783694286</v>
+        <v>2206.409452528959</v>
       </c>
       <c r="P22" t="n">
-        <v>2140.534629067182</v>
+        <v>2308.727403931514</v>
       </c>
       <c r="Q22" t="n">
         <v>2379.567049930382</v>
       </c>
       <c r="R22" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S22" t="n">
-        <v>2252.415148561779</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="T22" t="n">
-        <v>2010.22375441962</v>
+        <v>2234.834917388253</v>
       </c>
       <c r="U22" t="n">
-        <v>1731.837835191186</v>
+        <v>1956.448998159818</v>
       </c>
       <c r="V22" t="n">
-        <v>1444.882327061616</v>
+        <v>1669.493490030248</v>
       </c>
       <c r="W22" t="n">
-        <v>1172.855922647908</v>
+        <v>1397.46708561654</v>
       </c>
       <c r="X22" t="n">
-        <v>927.4641679813205</v>
+        <v>1152.075330949953</v>
       </c>
       <c r="Y22" t="n">
-        <v>700.0444972954288</v>
+        <v>924.6556602640608</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>728.7529352599677</v>
+        <v>1795.550578910533</v>
       </c>
       <c r="C23" t="n">
-        <v>728.7529352599677</v>
+        <v>1357.408106093957</v>
       </c>
       <c r="D23" t="n">
-        <v>728.7529352599677</v>
+        <v>921.4983212684012</v>
       </c>
       <c r="E23" t="n">
-        <v>728.7529352599677</v>
+        <v>487.7235764266964</v>
       </c>
       <c r="F23" t="n">
-        <v>728.7529352599677</v>
+        <v>59.85614683590416</v>
       </c>
       <c r="G23" t="n">
-        <v>329.2793736494458</v>
+        <v>59.85614683590416</v>
       </c>
       <c r="H23" t="n">
         <v>59.85614683590416</v>
@@ -5989,10 +5989,10 @@
         <v>132.1567720713171</v>
       </c>
       <c r="J23" t="n">
-        <v>727.4813827721674</v>
+        <v>727.4813827721673</v>
       </c>
       <c r="K23" t="n">
-        <v>967.384703873794</v>
+        <v>967.3847038737938</v>
       </c>
       <c r="L23" t="n">
         <v>1265.005987403131</v>
@@ -6001,40 +6001,40 @@
         <v>1596.167010811529</v>
       </c>
       <c r="N23" t="n">
-        <v>1932.686565796866</v>
+        <v>1932.686565796865</v>
       </c>
       <c r="O23" t="n">
-        <v>2250.452438998416</v>
+        <v>2250.452438998414</v>
       </c>
       <c r="P23" t="n">
-        <v>2521.658260002634</v>
+        <v>2521.658260002632</v>
       </c>
       <c r="Q23" t="n">
-        <v>2874.337351766219</v>
+        <v>2725.322536933252</v>
       </c>
       <c r="R23" t="n">
         <v>2992.807341795208</v>
       </c>
       <c r="S23" t="n">
-        <v>2961.59723374641</v>
+        <v>2992.807341795208</v>
       </c>
       <c r="T23" t="n">
-        <v>2749.953497521052</v>
+        <v>2992.807341795208</v>
       </c>
       <c r="U23" t="n">
-        <v>2749.953497521052</v>
+        <v>2992.807341795208</v>
       </c>
       <c r="V23" t="n">
-        <v>2387.336547454878</v>
+        <v>2992.807341795208</v>
       </c>
       <c r="W23" t="n">
-        <v>1982.481092865911</v>
+        <v>2992.807341795208</v>
       </c>
       <c r="X23" t="n">
-        <v>1563.338629445222</v>
+        <v>2573.664878374519</v>
       </c>
       <c r="Y23" t="n">
-        <v>1155.052505744875</v>
+        <v>2221.850149395441</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>176.0037857953917</v>
       </c>
       <c r="G24" t="n">
-        <v>91.64827115394205</v>
+        <v>91.64827115394206</v>
       </c>
       <c r="H24" t="n">
         <v>59.85614683590416</v>
       </c>
       <c r="I24" t="n">
-        <v>94.59881965179268</v>
+        <v>94.59881965179267</v>
       </c>
       <c r="J24" t="n">
-        <v>189.9353693495067</v>
+        <v>189.9353693495066</v>
       </c>
       <c r="K24" t="n">
-        <v>352.8807177651204</v>
+        <v>352.8807177651203</v>
       </c>
       <c r="L24" t="n">
-        <v>571.9808474148736</v>
+        <v>571.9808474148733</v>
       </c>
       <c r="M24" t="n">
-        <v>827.6603644306543</v>
+        <v>827.660364430654</v>
       </c>
       <c r="N24" t="n">
-        <v>1090.106957463696</v>
+        <v>1064.541727202643</v>
       </c>
       <c r="O24" t="n">
-        <v>1330.194316985161</v>
+        <v>1304.629086724109</v>
       </c>
       <c r="P24" t="n">
-        <v>1522.885589476646</v>
+        <v>1497.320359215593</v>
       </c>
       <c r="Q24" t="n">
-        <v>1651.694602168827</v>
+        <v>1626.129371907774</v>
       </c>
       <c r="R24" t="n">
         <v>1688.781254249394</v>
@@ -6141,7 +6141,7 @@
         <v>254.786372350754</v>
       </c>
       <c r="H25" t="n">
-        <v>122.5584855501481</v>
+        <v>122.5584855501482</v>
       </c>
       <c r="I25" t="n">
         <v>59.85614683590416</v>
@@ -6150,37 +6150,37 @@
         <v>206.2469194974124</v>
       </c>
       <c r="K25" t="n">
-        <v>579.2933640658913</v>
+        <v>304.5349094947557</v>
       </c>
       <c r="L25" t="n">
-        <v>1026.103462974249</v>
+        <v>848.5195790887381</v>
       </c>
       <c r="M25" t="n">
-        <v>1618.199208991171</v>
+        <v>1440.61532510566</v>
       </c>
       <c r="N25" t="n">
-        <v>1747.657873750583</v>
+        <v>2012.332793022716</v>
       </c>
       <c r="O25" t="n">
-        <v>2286.903153373758</v>
+        <v>2286.903153373759</v>
       </c>
       <c r="P25" t="n">
-        <v>2736.727998746655</v>
+        <v>2736.727998746656</v>
       </c>
       <c r="Q25" t="n">
-        <v>2975.760419609855</v>
+        <v>2975.760419609856</v>
       </c>
       <c r="R25" t="n">
         <v>2992.807341795208</v>
       </c>
       <c r="S25" t="n">
-        <v>2848.608518241252</v>
+        <v>2848.608518241253</v>
       </c>
       <c r="T25" t="n">
         <v>2606.417124099093</v>
       </c>
       <c r="U25" t="n">
-        <v>2328.031204870658</v>
+        <v>2328.031204870659</v>
       </c>
       <c r="V25" t="n">
         <v>2041.075696741089</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1295.677799873779</v>
+        <v>712.5384184324379</v>
       </c>
       <c r="C26" t="n">
-        <v>857.5353270572027</v>
+        <v>274.3959456158612</v>
       </c>
       <c r="D26" t="n">
-        <v>857.5353270572027</v>
+        <v>274.3959456158612</v>
       </c>
       <c r="E26" t="n">
-        <v>857.5353270572027</v>
+        <v>274.3959456158612</v>
       </c>
       <c r="F26" t="n">
-        <v>728.7529352599677</v>
+        <v>274.3959456158612</v>
       </c>
       <c r="G26" t="n">
-        <v>329.2793736494458</v>
+        <v>59.85614683590416</v>
       </c>
       <c r="H26" t="n">
         <v>59.85614683590416</v>
@@ -6226,52 +6226,52 @@
         <v>132.1567720713171</v>
       </c>
       <c r="J26" t="n">
-        <v>707.3421328520769</v>
+        <v>727.4813827721673</v>
       </c>
       <c r="K26" t="n">
-        <v>947.2454539537035</v>
+        <v>967.3847038737938</v>
       </c>
       <c r="L26" t="n">
-        <v>1244.866737483041</v>
+        <v>1265.005987403131</v>
       </c>
       <c r="M26" t="n">
-        <v>1576.027760891439</v>
+        <v>1596.167010811529</v>
       </c>
       <c r="N26" t="n">
-        <v>1912.547315876775</v>
+        <v>1932.686565796865</v>
       </c>
       <c r="O26" t="n">
-        <v>2230.313189078325</v>
+        <v>2250.452438998414</v>
       </c>
       <c r="P26" t="n">
-        <v>2501.519010082543</v>
+        <v>2521.658260002632</v>
       </c>
       <c r="Q26" t="n">
-        <v>2705.183287013162</v>
+        <v>2874.337351766219</v>
       </c>
       <c r="R26" t="n">
         <v>2992.807341795208</v>
       </c>
       <c r="S26" t="n">
-        <v>2953.004765276653</v>
+        <v>2992.807341795208</v>
       </c>
       <c r="T26" t="n">
-        <v>2741.361029051295</v>
+        <v>2992.807341795208</v>
       </c>
       <c r="U26" t="n">
-        <v>2482.292667949609</v>
+        <v>2733.738980693522</v>
       </c>
       <c r="V26" t="n">
-        <v>2119.675717883435</v>
+        <v>2371.122030627349</v>
       </c>
       <c r="W26" t="n">
-        <v>1714.820263294469</v>
+        <v>1966.266576038382</v>
       </c>
       <c r="X26" t="n">
-        <v>1295.677799873779</v>
+        <v>1547.124112617692</v>
       </c>
       <c r="Y26" t="n">
-        <v>1295.677799873779</v>
+        <v>1138.837988917346</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>59.85614683590416</v>
       </c>
       <c r="I27" t="n">
-        <v>94.5988196517927</v>
+        <v>94.59881965179267</v>
       </c>
       <c r="J27" t="n">
-        <v>189.9353693495067</v>
+        <v>189.9353693495066</v>
       </c>
       <c r="K27" t="n">
-        <v>352.8807177651204</v>
+        <v>352.8807177651203</v>
       </c>
       <c r="L27" t="n">
-        <v>571.9808474148736</v>
+        <v>571.9808474148733</v>
       </c>
       <c r="M27" t="n">
-        <v>827.6603644306543</v>
+        <v>827.660364430654</v>
       </c>
       <c r="N27" t="n">
-        <v>1090.106957463696</v>
+        <v>1064.541727202643</v>
       </c>
       <c r="O27" t="n">
-        <v>1330.194316985161</v>
+        <v>1304.629086724109</v>
       </c>
       <c r="P27" t="n">
-        <v>1522.885589476646</v>
+        <v>1497.320359215593</v>
       </c>
       <c r="Q27" t="n">
         <v>1626.129371907774</v>
@@ -6384,28 +6384,28 @@
         <v>59.85614683590416</v>
       </c>
       <c r="J28" t="n">
-        <v>119.6672343327226</v>
+        <v>119.6672343327225</v>
       </c>
       <c r="K28" t="n">
-        <v>217.9552243300659</v>
+        <v>217.9552243300658</v>
       </c>
       <c r="L28" t="n">
-        <v>752.0374346809376</v>
+        <v>761.9398939240481</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.133180697859</v>
+        <v>1354.03563994097</v>
       </c>
       <c r="N28" t="n">
-        <v>1915.850648614916</v>
+        <v>1925.753107858026</v>
       </c>
       <c r="O28" t="n">
-        <v>2455.095928238091</v>
+        <v>2464.998387481201</v>
       </c>
       <c r="P28" t="n">
         <v>2904.920773610988</v>
       </c>
       <c r="Q28" t="n">
-        <v>2975.760419609855</v>
+        <v>2975.760419609856</v>
       </c>
       <c r="R28" t="n">
         <v>2992.807341795208</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1600.670152918249</v>
+        <v>461.0921056885245</v>
       </c>
       <c r="C29" t="n">
-        <v>1162.527680101673</v>
+        <v>329.2793736494458</v>
       </c>
       <c r="D29" t="n">
-        <v>1162.527680101673</v>
+        <v>329.2793736494458</v>
       </c>
       <c r="E29" t="n">
-        <v>728.7529352599677</v>
+        <v>329.2793736494458</v>
       </c>
       <c r="F29" t="n">
-        <v>728.7529352599677</v>
+        <v>329.2793736494458</v>
       </c>
       <c r="G29" t="n">
         <v>329.2793736494458</v>
@@ -6463,28 +6463,28 @@
         <v>132.1567720713171</v>
       </c>
       <c r="J29" t="n">
-        <v>707.3421328520769</v>
+        <v>292.2266953192494</v>
       </c>
       <c r="K29" t="n">
-        <v>947.2454539537035</v>
+        <v>532.1300164208759</v>
       </c>
       <c r="L29" t="n">
-        <v>1244.866737483041</v>
+        <v>829.7512999502131</v>
       </c>
       <c r="M29" t="n">
-        <v>1576.027760891439</v>
+        <v>1160.912323358611</v>
       </c>
       <c r="N29" t="n">
-        <v>1912.547315876775</v>
+        <v>1497.431878343947</v>
       </c>
       <c r="O29" t="n">
-        <v>2230.313189078325</v>
+        <v>1815.197751545497</v>
       </c>
       <c r="P29" t="n">
-        <v>2501.519010082543</v>
+        <v>2086.403572549715</v>
       </c>
       <c r="Q29" t="n">
-        <v>2705.183287013162</v>
+        <v>2827.123389644029</v>
       </c>
       <c r="R29" t="n">
         <v>2992.807341795208</v>
@@ -6499,16 +6499,16 @@
         <v>2482.292667949609</v>
       </c>
       <c r="V29" t="n">
-        <v>2435.255847103504</v>
+        <v>2119.675717883435</v>
       </c>
       <c r="W29" t="n">
-        <v>2435.255847103504</v>
+        <v>1714.820263294468</v>
       </c>
       <c r="X29" t="n">
-        <v>2435.255847103504</v>
+        <v>1295.677799873779</v>
       </c>
       <c r="Y29" t="n">
-        <v>2026.969723403157</v>
+        <v>887.3916761734323</v>
       </c>
     </row>
     <row r="30">
@@ -6533,28 +6533,28 @@
         <v>176.0037857953917</v>
       </c>
       <c r="G30" t="n">
-        <v>91.64827115394206</v>
+        <v>91.64827115394205</v>
       </c>
       <c r="H30" t="n">
         <v>59.85614683590416</v>
       </c>
       <c r="I30" t="n">
-        <v>69.03358939074032</v>
+        <v>94.59881965179267</v>
       </c>
       <c r="J30" t="n">
-        <v>164.3701390884543</v>
+        <v>189.9353693495066</v>
       </c>
       <c r="K30" t="n">
-        <v>327.3154875040681</v>
+        <v>352.8807177651203</v>
       </c>
       <c r="L30" t="n">
-        <v>546.4156171538211</v>
+        <v>571.9808474148733</v>
       </c>
       <c r="M30" t="n">
-        <v>802.095134169602</v>
+        <v>827.660364430654</v>
       </c>
       <c r="N30" t="n">
-        <v>1064.541727202643</v>
+        <v>1090.106957463695</v>
       </c>
       <c r="O30" t="n">
         <v>1304.629086724109</v>
@@ -6600,19 +6600,19 @@
         <v>1104.419248255914</v>
       </c>
       <c r="C31" t="n">
-        <v>931.8575367391391</v>
+        <v>931.8575367391387</v>
       </c>
       <c r="D31" t="n">
-        <v>765.9795439406619</v>
+        <v>765.9795439406614</v>
       </c>
       <c r="E31" t="n">
-        <v>596.2215401913991</v>
+        <v>596.2215401913986</v>
       </c>
       <c r="F31" t="n">
-        <v>419.5144861531553</v>
+        <v>419.5144861531548</v>
       </c>
       <c r="G31" t="n">
-        <v>254.7863723507539</v>
+        <v>254.7863723507536</v>
       </c>
       <c r="H31" t="n">
         <v>122.5584855501482</v>
@@ -6621,25 +6621,25 @@
         <v>59.85614683590416</v>
       </c>
       <c r="J31" t="n">
-        <v>119.6672343327226</v>
+        <v>206.2469194974124</v>
       </c>
       <c r="K31" t="n">
-        <v>217.9552243300659</v>
+        <v>579.2933640658913</v>
       </c>
       <c r="L31" t="n">
-        <v>752.0374346809376</v>
+        <v>1123.278033659874</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.133180697859</v>
+        <v>1255.889912495882</v>
       </c>
       <c r="N31" t="n">
-        <v>1915.850648614916</v>
+        <v>1747.657873750583</v>
       </c>
       <c r="O31" t="n">
-        <v>2455.095928238091</v>
+        <v>2286.903153373759</v>
       </c>
       <c r="P31" t="n">
-        <v>2904.920773610988</v>
+        <v>2736.727998746655</v>
       </c>
       <c r="Q31" t="n">
         <v>2975.760419609855</v>
@@ -6654,7 +6654,7 @@
         <v>2606.417124099093</v>
       </c>
       <c r="U31" t="n">
-        <v>2328.031204870659</v>
+        <v>2328.031204870658</v>
       </c>
       <c r="V31" t="n">
         <v>2041.075696741089</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>893.1044532881308</v>
+        <v>1323.106922862774</v>
       </c>
       <c r="C32" t="n">
-        <v>893.1044532881308</v>
+        <v>1323.106922862774</v>
       </c>
       <c r="D32" t="n">
-        <v>893.1044532881308</v>
+        <v>887.1971380372182</v>
       </c>
       <c r="E32" t="n">
-        <v>459.329708446426</v>
+        <v>887.1971380372182</v>
       </c>
       <c r="F32" t="n">
         <v>459.329708446426</v>
       </c>
       <c r="G32" t="n">
-        <v>59.85614683590415</v>
+        <v>59.85614683590416</v>
       </c>
       <c r="H32" t="n">
-        <v>59.85614683590415</v>
+        <v>59.85614683590416</v>
       </c>
       <c r="I32" t="n">
         <v>132.1567720713171</v>
       </c>
       <c r="J32" t="n">
-        <v>727.4813827721674</v>
+        <v>707.3421328520778</v>
       </c>
       <c r="K32" t="n">
-        <v>967.384703873794</v>
+        <v>947.2454539537043</v>
       </c>
       <c r="L32" t="n">
-        <v>1265.005987403131</v>
+        <v>1244.866737483042</v>
       </c>
       <c r="M32" t="n">
-        <v>1596.167010811529</v>
+        <v>1576.027760891439</v>
       </c>
       <c r="N32" t="n">
-        <v>1932.686565796866</v>
+        <v>1912.547315876775</v>
       </c>
       <c r="O32" t="n">
-        <v>2250.452438998416</v>
+        <v>2230.313189078325</v>
       </c>
       <c r="P32" t="n">
-        <v>2521.658260002634</v>
+        <v>2501.519010082543</v>
       </c>
       <c r="Q32" t="n">
-        <v>2874.337351766218</v>
+        <v>2705.183287013162</v>
       </c>
       <c r="R32" t="n">
-        <v>2992.807341795207</v>
+        <v>2992.807341795208</v>
       </c>
       <c r="S32" t="n">
         <v>2953.004765276653</v>
       </c>
       <c r="T32" t="n">
-        <v>2810.756426584727</v>
+        <v>2741.361029051295</v>
       </c>
       <c r="U32" t="n">
-        <v>2551.688065483041</v>
+        <v>2482.292667949609</v>
       </c>
       <c r="V32" t="n">
-        <v>2551.688065483041</v>
+        <v>2119.675717883435</v>
       </c>
       <c r="W32" t="n">
-        <v>2146.832610894075</v>
+        <v>1742.249386283463</v>
       </c>
       <c r="X32" t="n">
-        <v>1727.690147473385</v>
+        <v>1323.106922862774</v>
       </c>
       <c r="Y32" t="n">
-        <v>1319.404023773039</v>
+        <v>1323.106922862774</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>176.0037857953917</v>
       </c>
       <c r="G33" t="n">
-        <v>91.64827115394203</v>
+        <v>91.64827115394206</v>
       </c>
       <c r="H33" t="n">
-        <v>59.85614683590415</v>
+        <v>59.85614683590416</v>
       </c>
       <c r="I33" t="n">
-        <v>69.03358939074032</v>
+        <v>94.59881965179267</v>
       </c>
       <c r="J33" t="n">
-        <v>164.3701390884543</v>
+        <v>189.9353693495066</v>
       </c>
       <c r="K33" t="n">
-        <v>327.3154875040681</v>
+        <v>352.8807177651203</v>
       </c>
       <c r="L33" t="n">
-        <v>546.4156171538211</v>
+        <v>571.9808474148733</v>
       </c>
       <c r="M33" t="n">
-        <v>802.095134169602</v>
+        <v>827.660364430654</v>
       </c>
       <c r="N33" t="n">
-        <v>1064.541727202643</v>
+        <v>1090.106957463695</v>
       </c>
       <c r="O33" t="n">
-        <v>1304.629086724109</v>
+        <v>1330.194316985161</v>
       </c>
       <c r="P33" t="n">
-        <v>1497.320359215593</v>
+        <v>1522.885589476645</v>
       </c>
       <c r="Q33" t="n">
         <v>1626.129371907774</v>
@@ -6837,7 +6837,7 @@
         <v>1104.419248255914</v>
       </c>
       <c r="C34" t="n">
-        <v>931.8575367391393</v>
+        <v>931.8575367391391</v>
       </c>
       <c r="D34" t="n">
         <v>765.9795439406619</v>
@@ -6852,52 +6852,52 @@
         <v>254.786372350754</v>
       </c>
       <c r="H34" t="n">
-        <v>122.5584855501481</v>
+        <v>122.5584855501482</v>
       </c>
       <c r="I34" t="n">
-        <v>59.85614683590415</v>
+        <v>59.85614683590416</v>
       </c>
       <c r="J34" t="n">
-        <v>119.6672343327225</v>
+        <v>206.2469194974124</v>
       </c>
       <c r="K34" t="n">
-        <v>492.7136789012014</v>
+        <v>579.2933640658913</v>
       </c>
       <c r="L34" t="n">
-        <v>752.0374346809367</v>
+        <v>1123.278033659874</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.133180697859</v>
+        <v>1595.609655059309</v>
       </c>
       <c r="N34" t="n">
-        <v>1915.850648614915</v>
+        <v>2167.327122976365</v>
       </c>
       <c r="O34" t="n">
-        <v>2455.09592823809</v>
+        <v>2286.903153373759</v>
       </c>
       <c r="P34" t="n">
-        <v>2904.920773610987</v>
+        <v>2736.727998746656</v>
       </c>
       <c r="Q34" t="n">
-        <v>2975.760419609855</v>
+        <v>2975.760419609856</v>
       </c>
       <c r="R34" t="n">
-        <v>2992.807341795207</v>
+        <v>2992.807341795208</v>
       </c>
       <c r="S34" t="n">
-        <v>2848.608518241252</v>
+        <v>2848.608518241253</v>
       </c>
       <c r="T34" t="n">
-        <v>2606.417124099093</v>
+        <v>2606.417124099094</v>
       </c>
       <c r="U34" t="n">
-        <v>2328.031204870659</v>
+        <v>2328.031204870658</v>
       </c>
       <c r="V34" t="n">
         <v>2041.075696741089</v>
       </c>
       <c r="W34" t="n">
-        <v>1769.049292327381</v>
+        <v>1769.04929232738</v>
       </c>
       <c r="X34" t="n">
         <v>1523.657537660793</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1617.14015350493</v>
+        <v>1142.885814509791</v>
       </c>
       <c r="C35" t="n">
-        <v>1178.997680688354</v>
+        <v>704.743341693214</v>
       </c>
       <c r="D35" t="n">
-        <v>1178.997680688354</v>
+        <v>268.8335568676585</v>
       </c>
       <c r="E35" t="n">
-        <v>745.2229358466486</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="F35" t="n">
-        <v>317.3555062558563</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="G35" t="n">
-        <v>317.3555062558563</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H35" t="n">
         <v>47.93227944231469</v>
       </c>
       <c r="I35" t="n">
-        <v>120.2329046777271</v>
+        <v>120.2329046777275</v>
       </c>
       <c r="J35" t="n">
-        <v>280.3028279256595</v>
+        <v>280.3028279256599</v>
       </c>
       <c r="K35" t="n">
-        <v>520.2061490272861</v>
+        <v>520.2061490272864</v>
       </c>
       <c r="L35" t="n">
-        <v>817.8274325566234</v>
+        <v>817.8274325566238</v>
       </c>
       <c r="M35" t="n">
-        <v>1148.988455965021</v>
+        <v>1148.988455965022</v>
       </c>
       <c r="N35" t="n">
         <v>1485.508010950358</v>
@@ -6961,28 +6961,28 @@
         <v>2278.143982086745</v>
       </c>
       <c r="R35" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S35" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="T35" t="n">
-        <v>2184.970235890376</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="U35" t="n">
-        <v>1925.901874788691</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="V35" t="n">
-        <v>1925.901874788691</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="W35" t="n">
-        <v>1925.901874788691</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="X35" t="n">
-        <v>1617.14015350493</v>
+        <v>1977.471508695045</v>
       </c>
       <c r="Y35" t="n">
-        <v>1617.14015350493</v>
+        <v>1569.185384994698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>47.93227944231469</v>
       </c>
       <c r="I36" t="n">
-        <v>82.67495225820322</v>
+        <v>82.67495225820321</v>
       </c>
       <c r="J36" t="n">
-        <v>152.4462716948649</v>
+        <v>178.0115019559171</v>
       </c>
       <c r="K36" t="n">
-        <v>315.3916201104786</v>
+        <v>315.391620110479</v>
       </c>
       <c r="L36" t="n">
-        <v>534.4917497602316</v>
+        <v>534.491749760232</v>
       </c>
       <c r="M36" t="n">
-        <v>790.1712667760125</v>
+        <v>790.1712667760128</v>
       </c>
       <c r="N36" t="n">
         <v>1052.617859809054</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>780.2522829901495</v>
+        <v>691.3533378328284</v>
       </c>
       <c r="C37" t="n">
-        <v>607.6905714733745</v>
+        <v>691.3533378328284</v>
       </c>
       <c r="D37" t="n">
-        <v>521.5953340835656</v>
+        <v>691.3533378328284</v>
       </c>
       <c r="E37" t="n">
         <v>521.5953340835656</v>
@@ -7095,31 +7095,31 @@
         <v>47.93227944231469</v>
       </c>
       <c r="J37" t="n">
-        <v>194.3230521038229</v>
+        <v>107.7433669391331</v>
       </c>
       <c r="K37" t="n">
-        <v>567.3694966723018</v>
+        <v>206.0313569364764</v>
       </c>
       <c r="L37" t="n">
-        <v>849.5793425205576</v>
+        <v>615.3279321823773</v>
       </c>
       <c r="M37" t="n">
-        <v>1441.675088537479</v>
+        <v>747.9398110183859</v>
       </c>
       <c r="N37" t="n">
-        <v>1571.133753296891</v>
+        <v>1319.657278935442</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.709783694285</v>
+        <v>1858.902558558618</v>
       </c>
       <c r="P37" t="n">
-        <v>2140.534629067182</v>
+        <v>2308.727403931514</v>
       </c>
       <c r="Q37" t="n">
         <v>2379.567049930382</v>
       </c>
       <c r="R37" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S37" t="n">
         <v>2252.415148561779</v>
@@ -7128,19 +7128,19 @@
         <v>2010.22375441962</v>
       </c>
       <c r="U37" t="n">
-        <v>1731.837835191186</v>
+        <v>1731.837835191185</v>
       </c>
       <c r="V37" t="n">
         <v>1444.882327061616</v>
       </c>
       <c r="W37" t="n">
-        <v>1444.882327061616</v>
+        <v>1172.855922647907</v>
       </c>
       <c r="X37" t="n">
-        <v>1199.490572395028</v>
+        <v>1110.591627237707</v>
       </c>
       <c r="Y37" t="n">
-        <v>972.0709017091367</v>
+        <v>883.1719565518156</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1991.758517526768</v>
+        <v>743.8969570364419</v>
       </c>
       <c r="C38" t="n">
-        <v>1578.471242298875</v>
+        <v>305.7544842198652</v>
       </c>
       <c r="D38" t="n">
-        <v>1578.471242298875</v>
+        <v>305.7544842198652</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.69649745717</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="F38" t="n">
-        <v>716.8290678663782</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="G38" t="n">
-        <v>317.3555062558564</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H38" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I38" t="n">
         <v>120.2329046777276</v>
       </c>
       <c r="J38" t="n">
-        <v>280.30282792566</v>
+        <v>280.3028279256599</v>
       </c>
       <c r="K38" t="n">
-        <v>520.2061490272866</v>
+        <v>520.2061490272864</v>
       </c>
       <c r="L38" t="n">
-        <v>817.827432556624</v>
+        <v>817.8274325566236</v>
       </c>
       <c r="M38" t="n">
-        <v>1148.988455965022</v>
+        <v>1148.988455965021</v>
       </c>
       <c r="N38" t="n">
         <v>1485.508010950358</v>
       </c>
       <c r="O38" t="n">
-        <v>1803.273884151909</v>
+        <v>1803.273884151908</v>
       </c>
       <c r="P38" t="n">
-        <v>2074.479705156126</v>
+        <v>2074.479705156125</v>
       </c>
       <c r="Q38" t="n">
-        <v>2278.143982086746</v>
+        <v>2278.143982086745</v>
       </c>
       <c r="R38" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S38" t="n">
-        <v>2396.613972115735</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="T38" t="n">
-        <v>2396.613972115735</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="U38" t="n">
-        <v>2396.613972115735</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="V38" t="n">
-        <v>2396.613972115735</v>
+        <v>1994.194445531006</v>
       </c>
       <c r="W38" t="n">
-        <v>1991.758517526768</v>
+        <v>1589.338990942039</v>
       </c>
       <c r="X38" t="n">
-        <v>1991.758517526768</v>
+        <v>1170.19652752135</v>
       </c>
       <c r="Y38" t="n">
-        <v>1991.758517526768</v>
+        <v>1170.19652752135</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>164.0799184018023</v>
       </c>
       <c r="G39" t="n">
-        <v>79.7244037603526</v>
+        <v>79.72440376035259</v>
       </c>
       <c r="H39" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I39" t="n">
-        <v>82.67495225820323</v>
+        <v>82.67495225820321</v>
       </c>
       <c r="J39" t="n">
-        <v>178.0115019559172</v>
+        <v>178.0115019559171</v>
       </c>
       <c r="K39" t="n">
-        <v>315.3916201104786</v>
+        <v>340.9568503715308</v>
       </c>
       <c r="L39" t="n">
-        <v>534.4917497602316</v>
+        <v>560.0569800212838</v>
       </c>
       <c r="M39" t="n">
-        <v>790.1712667760125</v>
+        <v>815.7364970370646</v>
       </c>
       <c r="N39" t="n">
-        <v>1052.617859809054</v>
+        <v>1078.183090070106</v>
       </c>
       <c r="O39" t="n">
-        <v>1292.705219330519</v>
+        <v>1318.270449591571</v>
       </c>
       <c r="P39" t="n">
         <v>1485.396491822004</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.8370415450736</v>
+        <v>652.4247021303963</v>
       </c>
       <c r="C40" t="n">
-        <v>560.2753300282985</v>
+        <v>652.4247021303963</v>
       </c>
       <c r="D40" t="n">
-        <v>394.3973372298212</v>
+        <v>486.546709331919</v>
       </c>
       <c r="E40" t="n">
-        <v>224.6393334805585</v>
+        <v>316.7887055826563</v>
       </c>
       <c r="F40" t="n">
-        <v>47.9322794423147</v>
+        <v>140.0816515444125</v>
       </c>
       <c r="G40" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H40" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I40" t="n">
-        <v>47.9322794423147</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="J40" t="n">
-        <v>194.323052103823</v>
+        <v>107.7433669391331</v>
       </c>
       <c r="K40" t="n">
-        <v>567.3694966723018</v>
+        <v>480.7898115076119</v>
       </c>
       <c r="L40" t="n">
-        <v>1111.354166266284</v>
+        <v>1024.774481101594</v>
       </c>
       <c r="M40" t="n">
-        <v>1703.449912283206</v>
+        <v>1157.386359937603</v>
       </c>
       <c r="N40" t="n">
-        <v>1832.908577042618</v>
+        <v>1729.103827854659</v>
       </c>
       <c r="O40" t="n">
-        <v>1952.484607440012</v>
+        <v>2206.409452528959</v>
       </c>
       <c r="P40" t="n">
-        <v>2140.534629067182</v>
+        <v>2308.727403931514</v>
       </c>
       <c r="Q40" t="n">
         <v>2379.567049930382</v>
       </c>
       <c r="R40" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S40" t="n">
-        <v>2396.613972115735</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="T40" t="n">
-        <v>2234.834917388253</v>
+        <v>2154.422577973575</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.448998159818</v>
+        <v>1876.036658745141</v>
       </c>
       <c r="V40" t="n">
-        <v>1669.493490030248</v>
+        <v>1589.081150615571</v>
       </c>
       <c r="W40" t="n">
-        <v>1397.46708561654</v>
+        <v>1317.054746201863</v>
       </c>
       <c r="X40" t="n">
-        <v>1152.075330949953</v>
+        <v>1071.662991535275</v>
       </c>
       <c r="Y40" t="n">
-        <v>924.6556602640608</v>
+        <v>844.2433208493835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1629.141567460595</v>
+        <v>909.5744538748118</v>
       </c>
       <c r="C41" t="n">
-        <v>1190.999094644019</v>
+        <v>909.5744538748118</v>
       </c>
       <c r="D41" t="n">
-        <v>755.0893098184631</v>
+        <v>909.5744538748118</v>
       </c>
       <c r="E41" t="n">
-        <v>321.3145649767583</v>
+        <v>475.7997090331069</v>
       </c>
       <c r="F41" t="n">
-        <v>321.3145649767583</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="G41" t="n">
-        <v>47.93227944231472</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H41" t="n">
-        <v>47.93227944231472</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I41" t="n">
-        <v>120.232904677728</v>
+        <v>120.2329046777276</v>
       </c>
       <c r="J41" t="n">
-        <v>280.3028279256604</v>
+        <v>280.3028279256603</v>
       </c>
       <c r="K41" t="n">
-        <v>520.206149027287</v>
+        <v>520.2061490272868</v>
       </c>
       <c r="L41" t="n">
-        <v>817.8274325566247</v>
+        <v>817.827432556624</v>
       </c>
       <c r="M41" t="n">
         <v>1148.988455965022</v>
       </c>
       <c r="N41" t="n">
-        <v>1485.508010950359</v>
+        <v>1485.508010950358</v>
       </c>
       <c r="O41" t="n">
-        <v>1803.273884151909</v>
+        <v>1803.273884151908</v>
       </c>
       <c r="P41" t="n">
-        <v>2074.479705156127</v>
+        <v>2074.479705156125</v>
       </c>
       <c r="Q41" t="n">
-        <v>2278.143982086747</v>
+        <v>2278.143982086745</v>
       </c>
       <c r="R41" t="n">
-        <v>2396.613972115736</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S41" t="n">
-        <v>2396.613972115736</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="T41" t="n">
-        <v>2396.613972115736</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="U41" t="n">
-        <v>2396.613972115736</v>
+        <v>2097.743034495493</v>
       </c>
       <c r="V41" t="n">
-        <v>2033.997022049562</v>
+        <v>1735.12608442932</v>
       </c>
       <c r="W41" t="n">
-        <v>1629.141567460595</v>
+        <v>1330.270629840353</v>
       </c>
       <c r="X41" t="n">
-        <v>1629.141567460595</v>
+        <v>1317.860577575158</v>
       </c>
       <c r="Y41" t="n">
-        <v>1629.141567460595</v>
+        <v>909.5744538748118</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>164.0799184018023</v>
       </c>
       <c r="G42" t="n">
-        <v>79.7244037603526</v>
+        <v>79.72440376035259</v>
       </c>
       <c r="H42" t="n">
-        <v>47.93227944231472</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I42" t="n">
-        <v>82.67495225820325</v>
+        <v>82.67495225820321</v>
       </c>
       <c r="J42" t="n">
-        <v>178.0115019559172</v>
+        <v>178.0115019559171</v>
       </c>
       <c r="K42" t="n">
-        <v>340.9568503715311</v>
+        <v>340.9568503715308</v>
       </c>
       <c r="L42" t="n">
-        <v>560.0569800212842</v>
+        <v>560.0569800212838</v>
       </c>
       <c r="M42" t="n">
-        <v>815.7364970370651</v>
+        <v>815.7364970370646</v>
       </c>
       <c r="N42" t="n">
         <v>1078.183090070106</v>
       </c>
       <c r="O42" t="n">
-        <v>1318.270449591572</v>
+        <v>1318.270449591571</v>
       </c>
       <c r="P42" t="n">
         <v>1510.961722083056</v>
       </c>
       <c r="Q42" t="n">
-        <v>1614.205504514185</v>
+        <v>1639.770734775237</v>
       </c>
       <c r="R42" t="n">
         <v>1676.857386855805</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.8370415450736</v>
+        <v>926.6173880638474</v>
       </c>
       <c r="C43" t="n">
-        <v>560.2753300282985</v>
+        <v>754.0556765470724</v>
       </c>
       <c r="D43" t="n">
-        <v>394.3973372298212</v>
+        <v>754.0556765470724</v>
       </c>
       <c r="E43" t="n">
-        <v>224.6393334805585</v>
+        <v>584.2976727978096</v>
       </c>
       <c r="F43" t="n">
-        <v>47.93227944231472</v>
+        <v>407.5906187595658</v>
       </c>
       <c r="G43" t="n">
-        <v>47.93227944231472</v>
+        <v>242.8625049571646</v>
       </c>
       <c r="H43" t="n">
-        <v>47.93227944231472</v>
+        <v>110.6346181565587</v>
       </c>
       <c r="I43" t="n">
-        <v>47.93227944231472</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="J43" t="n">
         <v>107.7433669391331</v>
       </c>
       <c r="K43" t="n">
-        <v>480.7898115076121</v>
+        <v>480.7898115076119</v>
       </c>
       <c r="L43" t="n">
         <v>1024.774481101594</v>
       </c>
       <c r="M43" t="n">
-        <v>1441.67508853748</v>
+        <v>1157.386359937603</v>
       </c>
       <c r="N43" t="n">
-        <v>1571.133753296892</v>
+        <v>1286.845024697015</v>
       </c>
       <c r="O43" t="n">
-        <v>1690.709783694286</v>
+        <v>1690.709783694285</v>
       </c>
       <c r="P43" t="n">
-        <v>2140.534629067183</v>
+        <v>2140.534629067182</v>
       </c>
       <c r="Q43" t="n">
-        <v>2379.567049930383</v>
+        <v>2379.567049930382</v>
       </c>
       <c r="R43" t="n">
-        <v>2396.613972115736</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S43" t="n">
-        <v>2396.613972115736</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="T43" t="n">
-        <v>2154.422577973577</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="U43" t="n">
-        <v>1876.036658745142</v>
+        <v>2118.2280528873</v>
       </c>
       <c r="V43" t="n">
-        <v>1589.081150615573</v>
+        <v>1863.273836549022</v>
       </c>
       <c r="W43" t="n">
-        <v>1317.054746201864</v>
+        <v>1591.247432135314</v>
       </c>
       <c r="X43" t="n">
-        <v>1071.662991535277</v>
+        <v>1345.855677468726</v>
       </c>
       <c r="Y43" t="n">
-        <v>924.6556602640608</v>
+        <v>1118.436006782835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.971540682955</v>
+        <v>698.2277834022688</v>
       </c>
       <c r="C44" t="n">
-        <v>716.8290678663782</v>
+        <v>698.2277834022688</v>
       </c>
       <c r="D44" t="n">
-        <v>716.8290678663782</v>
+        <v>698.2277834022688</v>
       </c>
       <c r="E44" t="n">
-        <v>716.8290678663782</v>
+        <v>698.2277834022688</v>
       </c>
       <c r="F44" t="n">
-        <v>716.8290678663782</v>
+        <v>270.3603538114765</v>
       </c>
       <c r="G44" t="n">
-        <v>317.3555062558564</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="H44" t="n">
-        <v>47.93227944231472</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I44" t="n">
-        <v>120.2329046777277</v>
+        <v>120.2329046777276</v>
       </c>
       <c r="J44" t="n">
-        <v>280.3028279256601</v>
+        <v>280.3028279256599</v>
       </c>
       <c r="K44" t="n">
-        <v>520.2061490272868</v>
+        <v>520.2061490272864</v>
       </c>
       <c r="L44" t="n">
-        <v>817.8274325566242</v>
+        <v>817.8274325566236</v>
       </c>
       <c r="M44" t="n">
-        <v>1148.988455965022</v>
+        <v>1148.988455965021</v>
       </c>
       <c r="N44" t="n">
         <v>1485.508010950358</v>
       </c>
       <c r="O44" t="n">
-        <v>1803.273884151909</v>
+        <v>1803.273884151908</v>
       </c>
       <c r="P44" t="n">
-        <v>2074.479705156127</v>
+        <v>2074.479705156125</v>
       </c>
       <c r="Q44" t="n">
-        <v>2278.143982086747</v>
+        <v>2278.143982086745</v>
       </c>
       <c r="R44" t="n">
-        <v>2396.613972115736</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S44" t="n">
-        <v>2396.613972115736</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="T44" t="n">
-        <v>2396.613972115736</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="U44" t="n">
-        <v>2137.545611014049</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="V44" t="n">
-        <v>1774.928660947876</v>
+        <v>2356.811395597179</v>
       </c>
       <c r="W44" t="n">
-        <v>1774.928660947876</v>
+        <v>1951.955941008213</v>
       </c>
       <c r="X44" t="n">
-        <v>1774.928660947876</v>
+        <v>1532.813477587523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1366.642537247529</v>
+        <v>1124.527353887177</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>164.0799184018023</v>
       </c>
       <c r="G45" t="n">
-        <v>79.7244037603526</v>
+        <v>79.72440376035259</v>
       </c>
       <c r="H45" t="n">
-        <v>47.93227944231472</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="I45" t="n">
-        <v>57.10972199715078</v>
+        <v>82.67495225820321</v>
       </c>
       <c r="J45" t="n">
-        <v>152.4462716948648</v>
+        <v>178.0115019559171</v>
       </c>
       <c r="K45" t="n">
-        <v>315.3916201104785</v>
+        <v>340.9568503715308</v>
       </c>
       <c r="L45" t="n">
-        <v>534.4917497602316</v>
+        <v>560.0569800212838</v>
       </c>
       <c r="M45" t="n">
-        <v>790.1712667760125</v>
+        <v>815.7364970370646</v>
       </c>
       <c r="N45" t="n">
-        <v>1052.617859809054</v>
+        <v>1078.183090070106</v>
       </c>
       <c r="O45" t="n">
-        <v>1292.705219330519</v>
+        <v>1318.270449591571</v>
       </c>
       <c r="P45" t="n">
         <v>1485.396491822004</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>652.4247021303977</v>
+        <v>652.4247021303963</v>
       </c>
       <c r="C46" t="n">
-        <v>479.8629906136226</v>
+        <v>652.4247021303963</v>
       </c>
       <c r="D46" t="n">
-        <v>394.3973372298212</v>
+        <v>589.327562744671</v>
       </c>
       <c r="E46" t="n">
-        <v>224.6393334805585</v>
+        <v>419.5695589954083</v>
       </c>
       <c r="F46" t="n">
-        <v>47.93227944231472</v>
+        <v>242.8625049571646</v>
       </c>
       <c r="G46" t="n">
-        <v>47.93227944231472</v>
+        <v>242.8625049571646</v>
       </c>
       <c r="H46" t="n">
-        <v>47.93227944231472</v>
+        <v>110.6346181565587</v>
       </c>
       <c r="I46" t="n">
-        <v>47.93227944231472</v>
+        <v>47.93227944231469</v>
       </c>
       <c r="J46" t="n">
         <v>107.7433669391331</v>
       </c>
       <c r="K46" t="n">
-        <v>480.7898115076121</v>
+        <v>480.7898115076119</v>
       </c>
       <c r="L46" t="n">
-        <v>606.5645993336335</v>
+        <v>889.3939604756896</v>
       </c>
       <c r="M46" t="n">
-        <v>739.1764781696422</v>
+        <v>1022.005839311698</v>
       </c>
       <c r="N46" t="n">
-        <v>1310.893946086698</v>
+        <v>1151.46450407111</v>
       </c>
       <c r="O46" t="n">
-        <v>1850.139225709874</v>
+        <v>1690.709783694285</v>
       </c>
       <c r="P46" t="n">
-        <v>2299.964071082771</v>
+        <v>2140.534629067182</v>
       </c>
       <c r="Q46" t="n">
-        <v>2379.567049930383</v>
+        <v>2379.567049930382</v>
       </c>
       <c r="R46" t="n">
-        <v>2396.613972115736</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="S46" t="n">
-        <v>2396.613972115736</v>
+        <v>2396.613972115734</v>
       </c>
       <c r="T46" t="n">
-        <v>2154.422577973577</v>
+        <v>2154.422577973575</v>
       </c>
       <c r="U46" t="n">
-        <v>1876.036658745142</v>
+        <v>1876.036658745141</v>
       </c>
       <c r="V46" t="n">
-        <v>1589.081150615573</v>
+        <v>1589.081150615571</v>
       </c>
       <c r="W46" t="n">
-        <v>1317.054746201864</v>
+        <v>1317.054746201863</v>
       </c>
       <c r="X46" t="n">
-        <v>1071.662991535277</v>
+        <v>1071.662991535275</v>
       </c>
       <c r="Y46" t="n">
-        <v>844.2433208493849</v>
+        <v>844.2433208493835</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8076884687375294</v>
+        <v>0.8076884687375259</v>
       </c>
       <c r="J9" t="n">
-        <v>2.721517647487969</v>
+        <v>2.721517647487968</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8613,25 +8613,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.704768336622556</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2.548781809778329</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.509981579681934</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0325151149067997</v>
+        <v>0.3953780091941237</v>
       </c>
       <c r="O10" t="n">
-        <v>2.583959521204308</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.681898459715344</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.860536639450494</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>286.3856438584642</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>199.7061044799871</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>158.0152101234695</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>199.7061044799866</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>199.7061044799866</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>174.7516986536652</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.5200149827938</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>150.5200149827956</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,19 +9798,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>324.2780920023604</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>156.5599292461102</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>419.3085227604317</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.5200149827956</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>412.4317399240913</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>341.0145805325569</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>419.3085227604317</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>542.4803435996914</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>47.69087083049499</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>412.4317399240913</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>365.9689863588783</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>419.3085227604328</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.5200149827933</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8979474279938</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>343.1512551145722</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>158.015210123469</v>
+        <v>286.3856438584642</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10989,19 +10989,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>361.3430245221271</v>
       </c>
       <c r="P40" t="n">
-        <v>86.59805073193456</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>287.1603319190676</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>287.1603319190672</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11460,13 +11460,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>285.6862233758145</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.851851362368052</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.77402585779841</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>30.49849916615064</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>28.28813805503963</v>
       </c>
       <c r="E8" t="n">
-        <v>27.37024434563791</v>
+        <v>26.17444847102748</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>20.71510220415747</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>11.68848986422212</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9407135410828174</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.96889226496967</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.4788259944166</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>266.7289945454062</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.40455075336934</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T11" t="n">
-        <v>209.5272988631047</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4776774906691</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>199.3283596245545</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>139.7439145624978</v>
       </c>
       <c r="E13" t="n">
-        <v>59.886910106953</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0808326643772</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.40455075336934</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.5272988631047</v>
+        <v>88.94142197882506</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>257.1882359031412</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,19 +23661,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>58.14583846845403</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>103.3903353623455</v>
+        <v>163.0808326643772</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>130.9056079325998</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7568353184161</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>208.9005508367572</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.4788259944166</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.7289945454062</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T17" t="n">
-        <v>209.5272988631047</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4776774906691</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>306.0029152500298</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>79.60821602053048</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0808326643772</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.9056079325998</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.7568353184161</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>134.1806833955916</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>186.1264510050074</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.4788259944166</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>266.7289945454062</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.5272988631047</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4776774906691</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>192.3448433691548</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>109.5003831681859</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0808326643772</v>
@@ -24147,7 +24147,7 @@
         <v>130.9056079325998</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.7568353184161</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>79.60821602053056</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4788259944166</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.7289945454062</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.506543785059517</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U23" t="n">
         <v>256.4776774906691</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>55.90668077405621</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>296.0941874156216</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>183.0844252022591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.7289945454062</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>303.266443369723</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.4788259944166</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>312.4243279278674</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>68.70144355809873</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>27.15483175910435</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>210.7447327421974</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.4788259944166</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.7289945454062</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.40455075336933</v>
+        <v>39.40455075336935</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4776774906691</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>109.2769347155597</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>78.98492785458177</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.07531532710155</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>181.2961846638239</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>24.60664561279674</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>174.1930146635127</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4788259944166</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.7289945454062</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.40455075336933</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.5272988631047</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U38" t="n">
         <v>256.4776774906691</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0808326643772</v>
+        <v>71.85295428330038</v>
       </c>
       <c r="H40" t="n">
         <v>130.9056079325998</v>
       </c>
       <c r="I40" t="n">
-        <v>62.07531532710155</v>
+        <v>62.07531532710156</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.7568353184161</v>
       </c>
       <c r="T40" t="n">
-        <v>79.60821602052965</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>124.8303633153175</v>
+        <v>395.4788259944166</v>
       </c>
       <c r="H41" t="n">
         <v>266.7289945454062</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.40455075336932</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.5272988631047</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4776774906691</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>402.6650870439398</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0808326643772</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9056079325998</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.07531532710155</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>142.7568353184161</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.7694802007374</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>31.68127887337909</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>79.60821602052908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.4822881811301</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>175.2750323689464</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.7289945454062</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.40455075336932</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.5272988631047</v>
+        <v>209.5272988631048</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4776774906691</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>79.60821602052916</v>
+        <v>101.7530448786245</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>163.0808326643772</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9056079325998</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.07531532710155</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498336.9385226897</v>
+        <v>498336.9385226899</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>319624.0228832111</v>
+        <v>319624.022883211</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>319624.0228832111</v>
+        <v>319624.022883211</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>319624.0228832111</v>
+        <v>319624.022883211</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>405595.1147161474</v>
+        <v>405595.1147161475</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>319624.0228832111</v>
+        <v>319624.022883211</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>319624.0228832111</v>
+        <v>319624.022883211</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>319624.0228832111</v>
+        <v>319624.022883211</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418707.7063118332</v>
+        <v>418707.7063118333</v>
       </c>
       <c r="C2" t="n">
         <v>418707.7063118333</v>
       </c>
       <c r="D2" t="n">
-        <v>419513.9778867595</v>
+        <v>419513.9778867596</v>
       </c>
       <c r="E2" t="n">
-        <v>254679.9156953616</v>
+        <v>254679.9156953615</v>
       </c>
       <c r="F2" t="n">
         <v>254679.9156953615</v>
       </c>
       <c r="G2" t="n">
-        <v>254679.9156953616</v>
+        <v>254679.9156953615</v>
       </c>
       <c r="H2" t="n">
-        <v>254679.9156953616</v>
+        <v>254679.9156953615</v>
       </c>
       <c r="I2" t="n">
+        <v>302619.9294813211</v>
+      </c>
+      <c r="J2" t="n">
         <v>302619.9294813212</v>
-      </c>
-      <c r="J2" t="n">
-        <v>302619.9294813211</v>
       </c>
       <c r="K2" t="n">
         <v>302619.9294813212</v>
       </c>
       <c r="L2" t="n">
-        <v>302619.9294813211</v>
+        <v>302619.9294813212</v>
       </c>
       <c r="M2" t="n">
         <v>254679.9156953616</v>
@@ -26352,10 +26352,10 @@
         <v>254679.9156953616</v>
       </c>
       <c r="O2" t="n">
-        <v>254679.9156953617</v>
+        <v>254679.9156953616</v>
       </c>
       <c r="P2" t="n">
-        <v>254679.9156953617</v>
+        <v>254679.9156953616</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>3293.504824504878</v>
       </c>
       <c r="E3" t="n">
-        <v>556493.9849028502</v>
+        <v>556493.9849028501</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39635.08426463376</v>
+        <v>39635.08426463385</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>825.7217692837182</v>
+        <v>825.7217692838043</v>
       </c>
       <c r="M3" t="n">
-        <v>111354.9637107586</v>
+        <v>111354.9637107585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>298368.6895257676</v>
@@ -26429,28 +26429,28 @@
         <v>17664.94094635609</v>
       </c>
       <c r="F4" t="n">
-        <v>17664.9409463561</v>
+        <v>17664.94094635609</v>
       </c>
       <c r="G4" t="n">
-        <v>17664.94094635612</v>
+        <v>17664.94094635609</v>
       </c>
       <c r="H4" t="n">
         <v>17664.94094635609</v>
       </c>
       <c r="I4" t="n">
-        <v>46798.97901518796</v>
+        <v>46798.97901518806</v>
       </c>
       <c r="J4" t="n">
-        <v>46798.979015188</v>
+        <v>46798.97901518805</v>
       </c>
       <c r="K4" t="n">
-        <v>46798.979015188</v>
+        <v>46798.97901518802</v>
       </c>
       <c r="L4" t="n">
-        <v>46798.97901518796</v>
+        <v>46798.97901518804</v>
       </c>
       <c r="M4" t="n">
-        <v>17664.94094635608</v>
+        <v>17664.94094635609</v>
       </c>
       <c r="N4" t="n">
         <v>17664.94094635609</v>
@@ -26459,7 +26459,7 @@
         <v>17664.94094635609</v>
       </c>
       <c r="P4" t="n">
-        <v>17664.9409463561</v>
+        <v>17664.94094635609</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33884.00183384596</v>
       </c>
       <c r="E5" t="n">
-        <v>46759.01791215031</v>
+        <v>46759.0179121503</v>
       </c>
       <c r="F5" t="n">
-        <v>46759.01791215032</v>
+        <v>46759.0179121503</v>
       </c>
       <c r="G5" t="n">
-        <v>46759.01791215032</v>
+        <v>46759.0179121503</v>
       </c>
       <c r="H5" t="n">
-        <v>46759.01791215032</v>
+        <v>46759.0179121503</v>
       </c>
       <c r="I5" t="n">
         <v>55821.15713127831</v>
@@ -26496,22 +26496,22 @@
         <v>55821.15713127831</v>
       </c>
       <c r="K5" t="n">
-        <v>55821.15713127831</v>
+        <v>55821.1571312783</v>
       </c>
       <c r="L5" t="n">
         <v>55821.15713127831</v>
       </c>
       <c r="M5" t="n">
-        <v>46759.01791215032</v>
+        <v>46759.0179121503</v>
       </c>
       <c r="N5" t="n">
-        <v>46759.01791215032</v>
+        <v>46759.0179121503</v>
       </c>
       <c r="O5" t="n">
-        <v>46759.01791215033</v>
+        <v>46759.0179121503</v>
       </c>
       <c r="P5" t="n">
-        <v>46759.01791215033</v>
+        <v>46759.0179121503</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86349.39000000042</v>
+        <v>86317.48328249886</v>
       </c>
       <c r="C6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.48328249891</v>
       </c>
       <c r="D6" t="n">
-        <v>83967.781702641</v>
+        <v>83938.39458381117</v>
       </c>
       <c r="E6" t="n">
-        <v>-366238.0280659951</v>
+        <v>-366782.521629173</v>
       </c>
       <c r="F6" t="n">
-        <v>190255.9568368551</v>
+        <v>189711.4632736771</v>
       </c>
       <c r="G6" t="n">
-        <v>190255.9568368552</v>
+        <v>189711.4632736771</v>
       </c>
       <c r="H6" t="n">
-        <v>190255.9568368552</v>
+        <v>189711.4632736771</v>
       </c>
       <c r="I6" t="n">
-        <v>160364.7090702211</v>
+        <v>159970.028050124</v>
       </c>
       <c r="J6" t="n">
-        <v>199999.7933348549</v>
+        <v>199605.112314758</v>
       </c>
       <c r="K6" t="n">
-        <v>199999.7933348549</v>
+        <v>199605.112314758</v>
       </c>
       <c r="L6" t="n">
-        <v>199174.0715655712</v>
+        <v>198779.3905454742</v>
       </c>
       <c r="M6" t="n">
-        <v>78900.99312609658</v>
+        <v>78356.49956291873</v>
       </c>
       <c r="N6" t="n">
-        <v>190255.9568368552</v>
+        <v>189711.4632736771</v>
       </c>
       <c r="O6" t="n">
-        <v>190255.9568368553</v>
+        <v>189711.4632736772</v>
       </c>
       <c r="P6" t="n">
-        <v>190255.9568368552</v>
+        <v>189711.4632736771</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="E3" t="n">
-        <v>473.8754833023462</v>
+        <v>473.875483302346</v>
       </c>
       <c r="F3" t="n">
-        <v>473.8754833023462</v>
+        <v>473.875483302346</v>
       </c>
       <c r="G3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
       <c r="H3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
       <c r="I3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
       <c r="J3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
       <c r="K3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
       <c r="L3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
       <c r="M3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
       <c r="N3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
       <c r="O3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
       <c r="P3" t="n">
-        <v>473.8754833023463</v>
+        <v>473.875483302346</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
-        <v>599.1534930289337</v>
+        <v>599.1534930289336</v>
       </c>
       <c r="F4" t="n">
-        <v>599.1534930289338</v>
+        <v>599.1534930289336</v>
       </c>
       <c r="G4" t="n">
-        <v>599.1534930289338</v>
+        <v>599.1534930289336</v>
       </c>
       <c r="H4" t="n">
-        <v>599.1534930289338</v>
+        <v>599.1534930289336</v>
       </c>
       <c r="I4" t="n">
-        <v>748.2018354488019</v>
+        <v>748.2018354488021</v>
       </c>
       <c r="J4" t="n">
         <v>748.2018354488021</v>
       </c>
       <c r="K4" t="n">
+        <v>748.2018354488019</v>
+      </c>
+      <c r="L4" t="n">
         <v>748.2018354488021</v>
       </c>
-      <c r="L4" t="n">
-        <v>748.2018354488018</v>
-      </c>
       <c r="M4" t="n">
-        <v>599.1534930289337</v>
+        <v>599.1534930289336</v>
       </c>
       <c r="N4" t="n">
-        <v>599.1534930289338</v>
+        <v>599.1534930289336</v>
       </c>
       <c r="O4" t="n">
-        <v>599.1534930289339</v>
+        <v>599.1534930289336</v>
       </c>
       <c r="P4" t="n">
-        <v>599.1534930289339</v>
+        <v>599.1534930289336</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="E3" t="n">
-        <v>471.2131503036059</v>
+        <v>471.2131503036057</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
-        <v>595.8909441066734</v>
+        <v>595.8909441066733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>149.0483424198682</v>
+        <v>149.0483424198685</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260049</v>
+        <v>3.26254892226039</v>
       </c>
       <c r="M4" t="n">
-        <v>446.8426016868052</v>
+        <v>446.8426016868048</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="M4" t="n">
-        <v>595.8909441066734</v>
+        <v>595.8909441066733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27940,10 +27940,10 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>89.91666160405553</v>
+        <v>90.30555743558897</v>
       </c>
       <c r="F9" t="n">
-        <v>79.67634690927315</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G9" t="n">
         <v>81.26296338663548</v>
@@ -28013,10 +28013,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>167.573545479347</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>160.9566639482323</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28028,7 +28028,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H10" t="n">
-        <v>135.586814858216</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I10" t="n">
         <v>87.62897272389382</v>
@@ -28061,13 +28061,13 @@
         <v>17.72522696250731</v>
       </c>
       <c r="S10" t="n">
-        <v>157.5652879271376</v>
+        <v>154.6916348364108</v>
       </c>
       <c r="T10" t="n">
-        <v>243.400138899798</v>
+        <v>240.1375899775377</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6484088706061</v>
+        <v>272.3858599483459</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -31524,7 +31524,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K8" t="n">
         <v>1.361442175632203</v>
@@ -31551,13 +31551,13 @@
         <v>0.6723126642497284</v>
       </c>
       <c r="S8" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0008562276980873295</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H9" t="n">
         <v>0.05530620059647288</v>
@@ -31603,10 +31603,10 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5410312747723079</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L9" t="n">
         <v>1.243384859458851</v>
@@ -31624,19 +31624,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R9" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S9" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T9" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,10 +31673,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I10" t="n">
         <v>0.1443770091775884</v>
@@ -31685,31 +31685,31 @@
         <v>0.3394256349377582</v>
       </c>
       <c r="K10" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N10" t="n">
         <v>0.7346729732425471</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R10" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S10" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T10" t="n">
         <v>0.02051305753127766</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H11" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I11" t="n">
-        <v>73.4435560603566</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J11" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K11" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L11" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M11" t="n">
-        <v>334.5060842509069</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N11" t="n">
-        <v>339.9187424094307</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O11" t="n">
-        <v>320.9756294965153</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P11" t="n">
-        <v>273.9452737416342</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R11" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S11" t="n">
-        <v>43.41080432463202</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T11" t="n">
-        <v>8.339255992587015</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,16 +31834,16 @@
         <v>1.019279341442782</v>
       </c>
       <c r="H12" t="n">
-        <v>9.844092587092137</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I12" t="n">
-        <v>35.09360890493791</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J12" t="n">
-        <v>96.29954514920605</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K12" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L12" t="n">
         <v>221.3132622724778</v>
@@ -31852,28 +31852,28 @@
         <v>258.2621383997786</v>
       </c>
       <c r="N12" t="n">
-        <v>265.0975687202437</v>
+        <v>239.2741038100902</v>
       </c>
       <c r="O12" t="n">
-        <v>242.5124843651167</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P12" t="n">
-        <v>168.8141840711439</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q12" t="n">
         <v>130.1101138304857</v>
       </c>
       <c r="R12" t="n">
-        <v>63.28472963800014</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S12" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T12" t="n">
-        <v>4.108411029762792</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8545295600534111</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H13" t="n">
-        <v>7.597544633929424</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I13" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J13" t="n">
-        <v>60.41523989577616</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K13" t="n">
-        <v>99.28079797711446</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L13" t="n">
         <v>127.0452402283044</v>
@@ -31937,22 +31937,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P13" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R13" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S13" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T13" t="n">
-        <v>3.651171756591846</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04661070327564066</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H14" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I14" t="n">
-        <v>73.4435560603566</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J14" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K14" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L14" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M14" t="n">
-        <v>334.5060842509069</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N14" t="n">
-        <v>339.9187424094307</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O14" t="n">
-        <v>320.9756294965153</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P14" t="n">
-        <v>273.9452737416342</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R14" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S14" t="n">
-        <v>43.41080432463202</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T14" t="n">
-        <v>8.339255992587015</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,16 +32071,16 @@
         <v>1.019279341442782</v>
       </c>
       <c r="H15" t="n">
-        <v>9.844092587092137</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I15" t="n">
-        <v>35.09360890493791</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J15" t="n">
-        <v>70.47608023905246</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K15" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L15" t="n">
         <v>221.3132622724778</v>
@@ -32089,10 +32089,10 @@
         <v>258.2621383997786</v>
       </c>
       <c r="N15" t="n">
-        <v>265.0975687202437</v>
+        <v>265.0975687202436</v>
       </c>
       <c r="O15" t="n">
-        <v>242.5124843651167</v>
+        <v>216.6890194549633</v>
       </c>
       <c r="P15" t="n">
         <v>194.6376489812976</v>
@@ -32101,16 +32101,16 @@
         <v>130.1101138304857</v>
       </c>
       <c r="R15" t="n">
-        <v>63.28472963800014</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S15" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T15" t="n">
-        <v>4.108411029762792</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8545295600534111</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H16" t="n">
-        <v>7.597544633929424</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I16" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J16" t="n">
-        <v>60.41523989577616</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K16" t="n">
-        <v>99.28079797711446</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L16" t="n">
         <v>127.0452402283044</v>
@@ -32174,22 +32174,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P16" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R16" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S16" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T16" t="n">
-        <v>3.651171756591846</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04661070327564066</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H17" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I17" t="n">
-        <v>73.44355606035661</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J17" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K17" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L17" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M17" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N17" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O17" t="n">
-        <v>320.9756294965154</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P17" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R17" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S17" t="n">
-        <v>43.41080432463203</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T17" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H18" t="n">
-        <v>9.844092587092138</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I18" t="n">
-        <v>9.270143994784</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J18" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K18" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L18" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M18" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N18" t="n">
-        <v>265.0975687202437</v>
+        <v>265.0975687202436</v>
       </c>
       <c r="O18" t="n">
-        <v>242.5124843651168</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P18" t="n">
-        <v>194.6376489812977</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.1101138304857</v>
+        <v>104.2866489203323</v>
       </c>
       <c r="R18" t="n">
-        <v>63.28472963800015</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S18" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T18" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8545295600534112</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H19" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I19" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J19" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K19" t="n">
-        <v>99.28079797711447</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L19" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M19" t="n">
         <v>133.9513927636451</v>
@@ -32411,22 +32411,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P19" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R19" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S19" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T19" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H20" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I20" t="n">
-        <v>73.44355606035661</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J20" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K20" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L20" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M20" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N20" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O20" t="n">
-        <v>320.9756294965154</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P20" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R20" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S20" t="n">
-        <v>43.41080432463203</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T20" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H21" t="n">
-        <v>9.844092587092138</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I21" t="n">
-        <v>35.09360890493791</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J21" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K21" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L21" t="n">
-        <v>195.4897973623239</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M21" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N21" t="n">
-        <v>265.0975687202437</v>
+        <v>239.2741038100902</v>
       </c>
       <c r="O21" t="n">
-        <v>242.5124843651168</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P21" t="n">
-        <v>194.6376489812977</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q21" t="n">
         <v>130.1101138304857</v>
       </c>
       <c r="R21" t="n">
-        <v>63.28472963800015</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S21" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T21" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8545295600534112</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H22" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I22" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J22" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K22" t="n">
-        <v>99.28079797711447</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L22" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M22" t="n">
         <v>133.9513927636451</v>
@@ -32648,22 +32648,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P22" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R22" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S22" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T22" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H23" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I23" t="n">
-        <v>73.44355606035661</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J23" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K23" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L23" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M23" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N23" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O23" t="n">
-        <v>320.9756294965154</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P23" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R23" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S23" t="n">
-        <v>43.41080432463203</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T23" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H24" t="n">
-        <v>9.844092587092138</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I24" t="n">
-        <v>35.09360890493791</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J24" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K24" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L24" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M24" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N24" t="n">
-        <v>265.0975687202437</v>
+        <v>239.2741038100902</v>
       </c>
       <c r="O24" t="n">
-        <v>242.5124843651168</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P24" t="n">
-        <v>194.6376489812977</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q24" t="n">
         <v>130.1101138304857</v>
       </c>
       <c r="R24" t="n">
-        <v>37.46126472784613</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S24" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T24" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8545295600534112</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H25" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I25" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J25" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K25" t="n">
-        <v>99.28079797711447</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L25" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M25" t="n">
         <v>133.9513927636451</v>
@@ -32885,22 +32885,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P25" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R25" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S25" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T25" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H26" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I26" t="n">
-        <v>73.44355606035661</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J26" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K26" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L26" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M26" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N26" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O26" t="n">
-        <v>320.9756294965154</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P26" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R26" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S26" t="n">
-        <v>43.41080432463203</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T26" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H27" t="n">
-        <v>9.844092587092138</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I27" t="n">
-        <v>35.09360890493791</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J27" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K27" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L27" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M27" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N27" t="n">
-        <v>265.0975687202437</v>
+        <v>239.2741038100902</v>
       </c>
       <c r="O27" t="n">
-        <v>242.5124843651168</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P27" t="n">
-        <v>194.6376489812977</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.2866489203318</v>
+        <v>130.1101138304857</v>
       </c>
       <c r="R27" t="n">
-        <v>63.28472963800015</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S27" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T27" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8545295600534112</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H28" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I28" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J28" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K28" t="n">
-        <v>99.28079797711447</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L28" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M28" t="n">
         <v>133.9513927636451</v>
@@ -33122,22 +33122,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P28" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R28" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S28" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T28" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H29" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I29" t="n">
-        <v>73.44355606035661</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J29" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K29" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L29" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M29" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N29" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O29" t="n">
-        <v>320.9756294965154</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P29" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R29" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S29" t="n">
-        <v>43.41080432463203</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T29" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H30" t="n">
-        <v>9.844092587092138</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I30" t="n">
-        <v>9.270143994784</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J30" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K30" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L30" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M30" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N30" t="n">
-        <v>265.0975687202437</v>
+        <v>265.0975687202436</v>
       </c>
       <c r="O30" t="n">
-        <v>242.5124843651168</v>
+        <v>216.6890194549633</v>
       </c>
       <c r="P30" t="n">
-        <v>194.6376489812977</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q30" t="n">
         <v>130.1101138304857</v>
       </c>
       <c r="R30" t="n">
-        <v>63.28472963800015</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S30" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T30" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8545295600534112</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H31" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I31" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J31" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K31" t="n">
-        <v>99.28079797711447</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L31" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M31" t="n">
         <v>133.9513927636451</v>
@@ -33359,22 +33359,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P31" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R31" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S31" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T31" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H32" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I32" t="n">
-        <v>73.44355606035661</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J32" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K32" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L32" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M32" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N32" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O32" t="n">
-        <v>320.9756294965154</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P32" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R32" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S32" t="n">
-        <v>43.41080432463203</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T32" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H33" t="n">
-        <v>9.844092587092138</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I33" t="n">
-        <v>9.270143994784014</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J33" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K33" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L33" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M33" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N33" t="n">
-        <v>265.0975687202437</v>
+        <v>265.0975687202436</v>
       </c>
       <c r="O33" t="n">
-        <v>242.5124843651168</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P33" t="n">
-        <v>194.6376489812977</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.1101138304857</v>
+        <v>104.2866489203323</v>
       </c>
       <c r="R33" t="n">
-        <v>63.28472963800015</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S33" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T33" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8545295600534112</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H34" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I34" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J34" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K34" t="n">
-        <v>99.28079797711447</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L34" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M34" t="n">
         <v>133.9513927636451</v>
@@ -33596,22 +33596,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P34" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R34" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S34" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T34" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H35" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I35" t="n">
-        <v>73.44355606035661</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J35" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K35" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L35" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M35" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N35" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O35" t="n">
-        <v>320.9756294965154</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P35" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R35" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S35" t="n">
-        <v>43.41080432463203</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T35" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H36" t="n">
-        <v>9.844092587092138</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I36" t="n">
-        <v>35.09360890493791</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J36" t="n">
-        <v>70.47608023905217</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K36" t="n">
-        <v>164.5912610258725</v>
+        <v>138.7677961157191</v>
       </c>
       <c r="L36" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M36" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N36" t="n">
-        <v>265.0975687202437</v>
+        <v>265.0975687202436</v>
       </c>
       <c r="O36" t="n">
-        <v>242.5124843651168</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P36" t="n">
-        <v>194.6376489812977</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q36" t="n">
         <v>130.1101138304857</v>
       </c>
       <c r="R36" t="n">
-        <v>63.28472963800015</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S36" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T36" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8545295600534112</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H37" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I37" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J37" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K37" t="n">
-        <v>99.28079797711447</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L37" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M37" t="n">
         <v>133.9513927636451</v>
@@ -33833,22 +33833,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P37" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R37" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S37" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T37" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H38" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I38" t="n">
-        <v>73.44355606035661</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J38" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K38" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L38" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M38" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N38" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O38" t="n">
-        <v>320.9756294965154</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P38" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R38" t="n">
         <v>119.6666565949387</v>
       </c>
       <c r="S38" t="n">
-        <v>43.41080432463203</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T38" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H39" t="n">
-        <v>9.844092587092138</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I39" t="n">
-        <v>35.09360890493791</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J39" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K39" t="n">
-        <v>138.7677961157186</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L39" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M39" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N39" t="n">
-        <v>265.0975687202437</v>
+        <v>265.0975687202436</v>
       </c>
       <c r="O39" t="n">
-        <v>242.5124843651168</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P39" t="n">
-        <v>194.6376489812977</v>
+        <v>168.8141840711442</v>
       </c>
       <c r="Q39" t="n">
         <v>130.1101138304857</v>
       </c>
       <c r="R39" t="n">
-        <v>63.28472963800015</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S39" t="n">
         <v>18.93266671495693</v>
       </c>
       <c r="T39" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0670578514107094</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8545295600534112</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H40" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I40" t="n">
-        <v>25.69803440596986</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J40" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K40" t="n">
-        <v>99.28079797711447</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L40" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M40" t="n">
         <v>133.9513927636451</v>
@@ -34070,22 +34070,22 @@
         <v>120.7838690882767</v>
       </c>
       <c r="P40" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.55519797865428</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R40" t="n">
-        <v>38.42275640021973</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S40" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T40" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H41" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I41" t="n">
-        <v>73.44355606035663</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J41" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K41" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L41" t="n">
-        <v>300.6275591205428</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M41" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N41" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O41" t="n">
-        <v>320.9756294965154</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P41" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R41" t="n">
-        <v>119.6666565949388</v>
+        <v>119.6666565949387</v>
       </c>
       <c r="S41" t="n">
-        <v>43.41080432463204</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T41" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H42" t="n">
-        <v>9.84409258709214</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I42" t="n">
-        <v>35.09360890493792</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J42" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K42" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L42" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M42" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N42" t="n">
-        <v>265.0975687202437</v>
+        <v>265.0975687202436</v>
       </c>
       <c r="O42" t="n">
-        <v>242.5124843651168</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P42" t="n">
-        <v>194.6376489812977</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.2866489203318</v>
+        <v>130.1101138304857</v>
       </c>
       <c r="R42" t="n">
-        <v>63.28472963800016</v>
+        <v>37.46126472784658</v>
       </c>
       <c r="S42" t="n">
-        <v>18.93266671495694</v>
+        <v>18.93266671495693</v>
       </c>
       <c r="T42" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06705785141070941</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8545295600534113</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H43" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I43" t="n">
-        <v>25.69803440596987</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J43" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K43" t="n">
-        <v>99.28079797711449</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L43" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M43" t="n">
-        <v>133.9513927636452</v>
+        <v>133.9513927636451</v>
       </c>
       <c r="N43" t="n">
         <v>130.7663280398098</v>
       </c>
       <c r="O43" t="n">
-        <v>120.7838690882768</v>
+        <v>120.7838690882767</v>
       </c>
       <c r="P43" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.55519797865429</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R43" t="n">
-        <v>38.42275640021974</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S43" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T43" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.905027068552144</v>
+        <v>1.905027068552143</v>
       </c>
       <c r="H44" t="n">
-        <v>19.50985846580965</v>
+        <v>19.50985846580964</v>
       </c>
       <c r="I44" t="n">
-        <v>73.44355606035663</v>
+        <v>73.44355606035658</v>
       </c>
       <c r="J44" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K44" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L44" t="n">
-        <v>300.6275591205428</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M44" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N44" t="n">
-        <v>339.9187424094308</v>
+        <v>339.9187424094306</v>
       </c>
       <c r="O44" t="n">
-        <v>320.9756294965164</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P44" t="n">
-        <v>273.9452737416343</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.7214918491105</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R44" t="n">
-        <v>119.6666565949388</v>
+        <v>119.6666565949386</v>
       </c>
       <c r="S44" t="n">
-        <v>43.41080432463204</v>
+        <v>43.41080432463201</v>
       </c>
       <c r="T44" t="n">
-        <v>8.339255992587017</v>
+        <v>8.339255992587011</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1524021654841715</v>
+        <v>0.1524021654841714</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.019279341442783</v>
+        <v>1.019279341442782</v>
       </c>
       <c r="H45" t="n">
-        <v>9.84409258709214</v>
+        <v>9.844092587092133</v>
       </c>
       <c r="I45" t="n">
-        <v>9.270143994783901</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J45" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K45" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L45" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M45" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N45" t="n">
-        <v>265.0975687202437</v>
+        <v>265.0975687202436</v>
       </c>
       <c r="O45" t="n">
-        <v>242.5124843651168</v>
+        <v>242.5124843651166</v>
       </c>
       <c r="P45" t="n">
-        <v>194.6376489812977</v>
+        <v>168.8141840711442</v>
       </c>
       <c r="Q45" t="n">
         <v>130.1101138304857</v>
       </c>
       <c r="R45" t="n">
-        <v>63.28472963800016</v>
+        <v>63.28472963800012</v>
       </c>
       <c r="S45" t="n">
-        <v>18.93266671495694</v>
+        <v>18.93266671495693</v>
       </c>
       <c r="T45" t="n">
-        <v>4.108411029762793</v>
+        <v>4.108411029762791</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06705785141070941</v>
+        <v>0.06705785141070937</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8545295600534113</v>
+        <v>0.8545295600534107</v>
       </c>
       <c r="H46" t="n">
-        <v>7.597544633929425</v>
+        <v>7.597544633929421</v>
       </c>
       <c r="I46" t="n">
-        <v>25.69803440596987</v>
+        <v>25.69803440596985</v>
       </c>
       <c r="J46" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577614</v>
       </c>
       <c r="K46" t="n">
-        <v>99.28079797711449</v>
+        <v>99.28079797711443</v>
       </c>
       <c r="L46" t="n">
-        <v>127.0452402283045</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M46" t="n">
-        <v>133.9513927636452</v>
+        <v>133.9513927636451</v>
       </c>
       <c r="N46" t="n">
         <v>130.7663280398098</v>
       </c>
       <c r="O46" t="n">
-        <v>120.7838690882768</v>
+        <v>120.7838690882767</v>
       </c>
       <c r="P46" t="n">
-        <v>103.3514660631871</v>
+        <v>103.351466063187</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.55519797865429</v>
+        <v>71.55519797865425</v>
       </c>
       <c r="R46" t="n">
-        <v>38.42275640021974</v>
+        <v>38.42275640021972</v>
       </c>
       <c r="S46" t="n">
-        <v>14.89211969656717</v>
+        <v>14.89211969656716</v>
       </c>
       <c r="T46" t="n">
-        <v>3.651171756591847</v>
+        <v>3.651171756591845</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04661070327564067</v>
+        <v>0.04661070327564064</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K8" t="n">
         <v>1.361442175632203</v>
@@ -35184,16 +35184,16 @@
         <v>1.879326147397212</v>
       </c>
       <c r="N8" t="n">
-        <v>1.909735609237094</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O8" t="n">
-        <v>1.803309182076395</v>
+        <v>1.803309182076392</v>
       </c>
       <c r="P8" t="n">
         <v>1.539082665869758</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.155786985397851</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R8" t="n">
         <v>0.6723126642497288</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.004851808738579</v>
+        <v>1.004851808738576</v>
       </c>
       <c r="J9" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K9" t="n">
         <v>0.9247086227794465</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.3394256349377583</v>
       </c>
       <c r="K10" t="n">
-        <v>0.55778058563772</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7137671124819467</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7525673425783417</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7671880881493469</v>
+        <v>1.130050982436671</v>
       </c>
       <c r="O10" t="n">
-        <v>3.262548922260277</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P10" t="n">
-        <v>3.262548922260277</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.262548922260278</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>73.0309345812252</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J11" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K11" t="n">
-        <v>242.3265869713401</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L11" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M11" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509067</v>
       </c>
       <c r="N11" t="n">
         <v>339.9187424094305</v>
@@ -35433,7 +35433,7 @@
         <v>205.7214918491104</v>
       </c>
       <c r="R11" t="n">
-        <v>119.666656594939</v>
+        <v>119.6666565949386</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>35.09360890493791</v>
+        <v>35.0936089049379</v>
       </c>
       <c r="J12" t="n">
-        <v>96.29954514920605</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K12" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L12" t="n">
         <v>221.3132622724778</v>
@@ -35500,13 +35500,13 @@
         <v>258.2621383997786</v>
       </c>
       <c r="N12" t="n">
-        <v>265.0975687202438</v>
+        <v>239.2741038100902</v>
       </c>
       <c r="O12" t="n">
         <v>242.5124843651167</v>
       </c>
       <c r="P12" t="n">
-        <v>168.8141840711439</v>
+        <v>194.6376489812976</v>
       </c>
       <c r="Q12" t="n">
         <v>130.1101138304857</v>
@@ -35573,13 +35573,13 @@
         <v>376.8145904732111</v>
       </c>
       <c r="L13" t="n">
-        <v>549.4794642363461</v>
+        <v>549.4794642363458</v>
       </c>
       <c r="M13" t="n">
         <v>333.6574972436317</v>
       </c>
       <c r="N13" t="n">
-        <v>130.7663280398099</v>
+        <v>130.7663280398097</v>
       </c>
       <c r="O13" t="n">
         <v>120.7838690882768</v>
@@ -35591,7 +35591,7 @@
         <v>241.4468897608081</v>
       </c>
       <c r="R13" t="n">
-        <v>17.21911331853789</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>73.0309345812252</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J14" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K14" t="n">
         <v>242.32658697134</v>
@@ -35661,7 +35661,7 @@
         <v>339.9187424094305</v>
       </c>
       <c r="O14" t="n">
-        <v>320.9756294965157</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P14" t="n">
         <v>273.9452737416341</v>
@@ -35670,7 +35670,7 @@
         <v>205.7214918491104</v>
       </c>
       <c r="R14" t="n">
-        <v>119.666656594939</v>
+        <v>119.6666565949386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>35.09360890493792</v>
+        <v>35.0936089049379</v>
       </c>
       <c r="J15" t="n">
-        <v>70.47608023905246</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K15" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L15" t="n">
         <v>221.3132622724778</v>
@@ -35740,7 +35740,7 @@
         <v>265.0975687202437</v>
       </c>
       <c r="O15" t="n">
-        <v>242.5124843651167</v>
+        <v>216.6890194549633</v>
       </c>
       <c r="P15" t="n">
         <v>194.6376489812976</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>147.8694673348568</v>
+        <v>60.41523989577613</v>
       </c>
       <c r="K16" t="n">
-        <v>376.8145904732111</v>
+        <v>99.28079797711445</v>
       </c>
       <c r="L16" t="n">
-        <v>549.4794642363461</v>
+        <v>127.0452402283044</v>
       </c>
       <c r="M16" t="n">
-        <v>133.9513927636451</v>
+        <v>420.3370366221093</v>
       </c>
       <c r="N16" t="n">
-        <v>130.7663280398099</v>
+        <v>577.4923918354104</v>
       </c>
       <c r="O16" t="n">
-        <v>320.4899735682638</v>
+        <v>544.6922016395711</v>
       </c>
       <c r="P16" t="n">
         <v>454.3685306796938</v>
       </c>
       <c r="Q16" t="n">
-        <v>241.4468897608081</v>
+        <v>71.55519797865418</v>
       </c>
       <c r="R16" t="n">
-        <v>17.21911331853789</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>73.03093458122521</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J17" t="n">
         <v>161.6867911595277</v>
       </c>
       <c r="K17" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713398</v>
       </c>
       <c r="L17" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M17" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509067</v>
       </c>
       <c r="N17" t="n">
         <v>339.9187424094307</v>
@@ -35901,13 +35901,13 @@
         <v>320.9756294965152</v>
       </c>
       <c r="P17" t="n">
-        <v>273.9452737416341</v>
+        <v>273.9452737416343</v>
       </c>
       <c r="Q17" t="n">
         <v>205.7214918491104</v>
       </c>
       <c r="R17" t="n">
-        <v>119.6666565949395</v>
+        <v>119.6666565949386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.270143994784</v>
+        <v>35.0936089049379</v>
       </c>
       <c r="J18" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K18" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L18" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M18" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N18" t="n">
-        <v>265.0975687202438</v>
+        <v>265.0975687202437</v>
       </c>
       <c r="O18" t="n">
         <v>242.5124843651167</v>
@@ -35983,7 +35983,7 @@
         <v>194.6376489812976</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.1101138304857</v>
+        <v>104.2866489203323</v>
       </c>
       <c r="R18" t="n">
         <v>63.28472963800004</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>147.8694673348569</v>
+        <v>147.8694673348568</v>
       </c>
       <c r="K19" t="n">
-        <v>376.814590473211</v>
+        <v>376.8145904732111</v>
       </c>
       <c r="L19" t="n">
-        <v>549.4794642363461</v>
+        <v>285.0604503517739</v>
       </c>
       <c r="M19" t="n">
-        <v>133.9513927636451</v>
+        <v>598.0765111282037</v>
       </c>
       <c r="N19" t="n">
-        <v>130.7663280398099</v>
+        <v>130.7663280398097</v>
       </c>
       <c r="O19" t="n">
-        <v>320.4899735682634</v>
+        <v>120.7838690882768</v>
       </c>
       <c r="P19" t="n">
         <v>454.3685306796938</v>
@@ -36065,7 +36065,7 @@
         <v>241.4468897608081</v>
       </c>
       <c r="R19" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>73.03093458122521</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J20" t="n">
         <v>161.6867911595277</v>
       </c>
       <c r="K20" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L20" t="n">
         <v>300.6275591205427</v>
@@ -36135,7 +36135,7 @@
         <v>339.9187424094307</v>
       </c>
       <c r="O20" t="n">
-        <v>320.9756294965157</v>
+        <v>320.975629496515</v>
       </c>
       <c r="P20" t="n">
         <v>273.9452737416341</v>
@@ -36144,7 +36144,7 @@
         <v>205.7214918491104</v>
       </c>
       <c r="R20" t="n">
-        <v>119.666656594939</v>
+        <v>119.6666565949386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.09360890493792</v>
+        <v>35.0936089049379</v>
       </c>
       <c r="J21" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K21" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L21" t="n">
-        <v>195.4897973623239</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M21" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N21" t="n">
-        <v>265.0975687202438</v>
+        <v>239.2741038100902</v>
       </c>
       <c r="O21" t="n">
         <v>242.5124843651167</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>147.8694673348569</v>
+        <v>60.41523989577613</v>
       </c>
       <c r="K22" t="n">
-        <v>376.814590473211</v>
+        <v>99.28079797711445</v>
       </c>
       <c r="L22" t="n">
-        <v>549.4794642363461</v>
+        <v>549.4794642363458</v>
       </c>
       <c r="M22" t="n">
-        <v>333.6574972436317</v>
+        <v>598.0765111282037</v>
       </c>
       <c r="N22" t="n">
-        <v>130.7663280398099</v>
+        <v>577.4923918354104</v>
       </c>
       <c r="O22" t="n">
-        <v>120.7838690882768</v>
+        <v>295.5355677419418</v>
       </c>
       <c r="P22" t="n">
-        <v>454.3685306796938</v>
+        <v>103.3514660631872</v>
       </c>
       <c r="Q22" t="n">
-        <v>241.4468897608081</v>
+        <v>71.55519797865418</v>
       </c>
       <c r="R22" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>73.03093458122521</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J23" t="n">
-        <v>601.3379906069196</v>
+        <v>601.3379906069194</v>
       </c>
       <c r="K23" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L23" t="n">
-        <v>300.6275591205429</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M23" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509067</v>
       </c>
       <c r="N23" t="n">
-        <v>339.9187424094307</v>
+        <v>339.9187424094305</v>
       </c>
       <c r="O23" t="n">
-        <v>320.9756294965155</v>
+        <v>320.975629496515</v>
       </c>
       <c r="P23" t="n">
         <v>273.9452737416341</v>
       </c>
       <c r="Q23" t="n">
-        <v>356.2415068319042</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R23" t="n">
-        <v>119.6666565949386</v>
+        <v>270.1866715777342</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.09360890493791</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J24" t="n">
-        <v>96.29954514920608</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K24" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L24" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M24" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N24" t="n">
-        <v>265.0975687202438</v>
+        <v>239.2741038100902</v>
       </c>
       <c r="O24" t="n">
         <v>242.5124843651167</v>
@@ -36460,7 +36460,7 @@
         <v>130.1101138304857</v>
       </c>
       <c r="R24" t="n">
-        <v>37.46126472784613</v>
+        <v>63.28472963800004</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>147.8694673348568</v>
       </c>
       <c r="K25" t="n">
-        <v>376.8145904732111</v>
+        <v>99.28079797711445</v>
       </c>
       <c r="L25" t="n">
-        <v>451.3233322306648</v>
+        <v>549.4794642363458</v>
       </c>
       <c r="M25" t="n">
-        <v>598.0765111282037</v>
+        <v>598.0765111282039</v>
       </c>
       <c r="N25" t="n">
-        <v>130.7663280398099</v>
+        <v>577.4923918354104</v>
       </c>
       <c r="O25" t="n">
-        <v>544.6922016395711</v>
+        <v>277.3437983343867</v>
       </c>
       <c r="P25" t="n">
         <v>454.3685306796938</v>
@@ -36539,7 +36539,7 @@
         <v>241.4468897608081</v>
       </c>
       <c r="R25" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>73.03093458122521</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J26" t="n">
-        <v>580.9953139199595</v>
+        <v>601.3379906069194</v>
       </c>
       <c r="K26" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L26" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M26" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509067</v>
       </c>
       <c r="N26" t="n">
-        <v>339.9187424094307</v>
+        <v>339.9187424094305</v>
       </c>
       <c r="O26" t="n">
-        <v>320.9756294965155</v>
+        <v>320.975629496515</v>
       </c>
       <c r="P26" t="n">
         <v>273.9452737416341</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.7214918491104</v>
+        <v>356.241506831906</v>
       </c>
       <c r="R26" t="n">
-        <v>290.529348264693</v>
+        <v>119.6666565949386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.09360890493792</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J27" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K27" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L27" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M27" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N27" t="n">
-        <v>265.0975687202438</v>
+        <v>239.2741038100902</v>
       </c>
       <c r="O27" t="n">
         <v>242.5124843651167</v>
@@ -36694,7 +36694,7 @@
         <v>194.6376489812976</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.2866489203318</v>
+        <v>130.1101138304857</v>
       </c>
       <c r="R27" t="n">
         <v>63.28472963800004</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577615</v>
       </c>
       <c r="K28" t="n">
-        <v>99.28079797711447</v>
+        <v>99.28079797711442</v>
       </c>
       <c r="L28" t="n">
-        <v>539.4769801523958</v>
+        <v>549.4794642363458</v>
       </c>
       <c r="M28" t="n">
-        <v>598.0765111282038</v>
+        <v>598.0765111282037</v>
       </c>
       <c r="N28" t="n">
-        <v>577.4923918354104</v>
+        <v>577.4923918354107</v>
       </c>
       <c r="O28" t="n">
         <v>544.6922016395711</v>
       </c>
       <c r="P28" t="n">
-        <v>454.3685306796938</v>
+        <v>444.3660465957441</v>
       </c>
       <c r="Q28" t="n">
         <v>71.55519797865418</v>
       </c>
       <c r="R28" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>73.03093458122521</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J29" t="n">
-        <v>580.9953139199595</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K29" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L29" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M29" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N29" t="n">
-        <v>339.9187424094307</v>
+        <v>339.9187424094305</v>
       </c>
       <c r="O29" t="n">
-        <v>320.9756294965155</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P29" t="n">
-        <v>273.9452737416341</v>
+        <v>273.9452737416343</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.7214918491104</v>
+        <v>748.2018354488018</v>
       </c>
       <c r="R29" t="n">
-        <v>290.529348264693</v>
+        <v>167.3575274254335</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.270143994784</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J30" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K30" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L30" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M30" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N30" t="n">
-        <v>265.0975687202438</v>
+        <v>265.0975687202437</v>
       </c>
       <c r="O30" t="n">
-        <v>242.5124843651167</v>
+        <v>216.6890194549633</v>
       </c>
       <c r="P30" t="n">
         <v>194.6376489812976</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.41523989577617</v>
+        <v>147.8694673348568</v>
       </c>
       <c r="K31" t="n">
-        <v>99.28079797711447</v>
+        <v>376.8145904732111</v>
       </c>
       <c r="L31" t="n">
-        <v>539.4769801523958</v>
+        <v>549.4794642363458</v>
       </c>
       <c r="M31" t="n">
-        <v>598.0765111282038</v>
+        <v>133.9513927636451</v>
       </c>
       <c r="N31" t="n">
-        <v>577.4923918354104</v>
+        <v>496.7353143986879</v>
       </c>
       <c r="O31" t="n">
         <v>544.6922016395711</v>
@@ -37010,10 +37010,10 @@
         <v>454.3685306796938</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.55519797865418</v>
+        <v>241.4468897608081</v>
       </c>
       <c r="R31" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>73.03093458122521</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J32" t="n">
-        <v>601.3379906069196</v>
+        <v>580.9953139199604</v>
       </c>
       <c r="K32" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L32" t="n">
-        <v>300.6275591205429</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M32" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509067</v>
       </c>
       <c r="N32" t="n">
-        <v>339.9187424094307</v>
+        <v>339.9187424094305</v>
       </c>
       <c r="O32" t="n">
-        <v>320.9756294965155</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P32" t="n">
         <v>273.9452737416341</v>
       </c>
       <c r="Q32" t="n">
-        <v>356.2415068319037</v>
+        <v>205.7214918491104</v>
       </c>
       <c r="R32" t="n">
-        <v>119.6666565949386</v>
+        <v>290.529348264693</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.270143994784014</v>
+        <v>35.09360890493789</v>
       </c>
       <c r="J33" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K33" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L33" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M33" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N33" t="n">
-        <v>265.0975687202438</v>
+        <v>265.0975687202437</v>
       </c>
       <c r="O33" t="n">
         <v>242.5124843651167</v>
@@ -37168,7 +37168,7 @@
         <v>194.6376489812976</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.1101138304857</v>
+        <v>104.2866489203323</v>
       </c>
       <c r="R33" t="n">
         <v>63.28472963800004</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.41523989577616</v>
+        <v>147.8694673348568</v>
       </c>
       <c r="K34" t="n">
         <v>376.8145904732111</v>
       </c>
       <c r="L34" t="n">
-        <v>261.9431876562983</v>
+        <v>549.4794642363458</v>
       </c>
       <c r="M34" t="n">
-        <v>598.0765111282038</v>
+        <v>477.1026478782173</v>
       </c>
       <c r="N34" t="n">
         <v>577.4923918354104</v>
       </c>
       <c r="O34" t="n">
-        <v>544.6922016395711</v>
+        <v>120.7838690882768</v>
       </c>
       <c r="P34" t="n">
         <v>454.3685306796938</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.55519797865418</v>
+        <v>241.4468897608081</v>
       </c>
       <c r="R34" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>73.03093458122521</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J35" t="n">
         <v>161.6867911595277</v>
       </c>
       <c r="K35" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L35" t="n">
         <v>300.6275591205427</v>
       </c>
       <c r="M35" t="n">
-        <v>334.5060842509071</v>
+        <v>334.506084250907</v>
       </c>
       <c r="N35" t="n">
         <v>339.9187424094307</v>
       </c>
       <c r="O35" t="n">
-        <v>320.9756294965152</v>
+        <v>320.975629496515</v>
       </c>
       <c r="P35" t="n">
         <v>273.9452737416341</v>
@@ -37329,7 +37329,7 @@
         <v>205.7214918491104</v>
       </c>
       <c r="R35" t="n">
-        <v>119.666656594939</v>
+        <v>119.6666565949386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.09360890493791</v>
+        <v>35.0936089049379</v>
       </c>
       <c r="J36" t="n">
-        <v>70.47608023905217</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K36" t="n">
-        <v>164.5912610258725</v>
+        <v>138.7677961157191</v>
       </c>
       <c r="L36" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M36" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N36" t="n">
-        <v>265.0975687202438</v>
+        <v>265.0975687202435</v>
       </c>
       <c r="O36" t="n">
         <v>242.5124843651167</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>147.8694673348568</v>
+        <v>60.41523989577613</v>
       </c>
       <c r="K37" t="n">
-        <v>376.8145904732111</v>
+        <v>99.28079797711445</v>
       </c>
       <c r="L37" t="n">
-        <v>285.0604503517735</v>
+        <v>413.4308840867686</v>
       </c>
       <c r="M37" t="n">
-        <v>598.0765111282038</v>
+        <v>133.9513927636451</v>
       </c>
       <c r="N37" t="n">
-        <v>130.7663280398099</v>
+        <v>577.4923918354104</v>
       </c>
       <c r="O37" t="n">
-        <v>120.7838690882768</v>
+        <v>544.6922016395711</v>
       </c>
       <c r="P37" t="n">
         <v>454.3685306796938</v>
       </c>
       <c r="Q37" t="n">
-        <v>241.4468897608081</v>
+        <v>71.55519797865418</v>
       </c>
       <c r="R37" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>73.03093458122521</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J38" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K38" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L38" t="n">
-        <v>300.6275591205427</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M38" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N38" t="n">
-        <v>339.9187424094307</v>
+        <v>339.9187424094305</v>
       </c>
       <c r="O38" t="n">
-        <v>320.9756294965157</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P38" t="n">
-        <v>273.9452737416341</v>
+        <v>273.9452737416343</v>
       </c>
       <c r="Q38" t="n">
         <v>205.7214918491104</v>
       </c>
       <c r="R38" t="n">
-        <v>119.666656594939</v>
+        <v>119.6666565949386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.09360890493792</v>
+        <v>35.0936089049379</v>
       </c>
       <c r="J39" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K39" t="n">
-        <v>138.7677961157186</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L39" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M39" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N39" t="n">
-        <v>265.0975687202438</v>
+        <v>265.0975687202437</v>
       </c>
       <c r="O39" t="n">
         <v>242.5124843651167</v>
       </c>
       <c r="P39" t="n">
-        <v>194.6376489812976</v>
+        <v>168.8141840711442</v>
       </c>
       <c r="Q39" t="n">
         <v>130.1101138304857</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>147.8694673348569</v>
+        <v>60.41523989577613</v>
       </c>
       <c r="K40" t="n">
         <v>376.814590473211</v>
       </c>
       <c r="L40" t="n">
-        <v>549.4794642363461</v>
+        <v>549.4794642363458</v>
       </c>
       <c r="M40" t="n">
-        <v>598.0765111282039</v>
+        <v>133.9513927636451</v>
       </c>
       <c r="N40" t="n">
-        <v>130.7663280398099</v>
+        <v>577.4923918354104</v>
       </c>
       <c r="O40" t="n">
-        <v>120.7838690882768</v>
+        <v>482.1268936104038</v>
       </c>
       <c r="P40" t="n">
-        <v>189.9495167951216</v>
+        <v>103.3514660631872</v>
       </c>
       <c r="Q40" t="n">
-        <v>241.4468897608081</v>
+        <v>71.55519797865418</v>
       </c>
       <c r="R40" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>73.03093458122522</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J41" t="n">
-        <v>161.6867911595277</v>
+        <v>161.686791159528</v>
       </c>
       <c r="K41" t="n">
-        <v>242.32658697134</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L41" t="n">
-        <v>300.6275591205431</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M41" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509067</v>
       </c>
       <c r="N41" t="n">
-        <v>339.9187424094307</v>
+        <v>339.9187424094305</v>
       </c>
       <c r="O41" t="n">
-        <v>320.9756294965155</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P41" t="n">
-        <v>273.9452737416345</v>
+        <v>273.9452737416341</v>
       </c>
       <c r="Q41" t="n">
         <v>205.7214918491104</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.09360890493792</v>
+        <v>35.0936089049379</v>
       </c>
       <c r="J42" t="n">
-        <v>96.29954514920605</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K42" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L42" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M42" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N42" t="n">
         <v>265.0975687202437</v>
@@ -37879,10 +37879,10 @@
         <v>194.6376489812976</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.2866489203318</v>
+        <v>130.1101138304857</v>
       </c>
       <c r="R42" t="n">
-        <v>63.28472963800004</v>
+        <v>37.46126472784658</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577613</v>
       </c>
       <c r="K43" t="n">
-        <v>376.8145904732111</v>
+        <v>376.814590473211</v>
       </c>
       <c r="L43" t="n">
         <v>549.4794642363458</v>
       </c>
       <c r="M43" t="n">
-        <v>421.1117246827127</v>
+        <v>133.9513927636451</v>
       </c>
       <c r="N43" t="n">
         <v>130.7663280398099</v>
       </c>
       <c r="O43" t="n">
-        <v>120.7838690882768</v>
+        <v>407.944201007344</v>
       </c>
       <c r="P43" t="n">
-        <v>454.368530679694</v>
+        <v>454.3685306796938</v>
       </c>
       <c r="Q43" t="n">
         <v>241.4468897608081</v>
       </c>
       <c r="R43" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>73.03093458122522</v>
+        <v>73.03093458122518</v>
       </c>
       <c r="J44" t="n">
-        <v>161.6867911595277</v>
+        <v>161.6867911595276</v>
       </c>
       <c r="K44" t="n">
-        <v>242.3265869713401</v>
+        <v>242.3265869713399</v>
       </c>
       <c r="L44" t="n">
-        <v>300.6275591205429</v>
+        <v>300.6275591205426</v>
       </c>
       <c r="M44" t="n">
-        <v>334.506084250907</v>
+        <v>334.5060842509068</v>
       </c>
       <c r="N44" t="n">
         <v>339.9187424094305</v>
       </c>
       <c r="O44" t="n">
-        <v>320.9756294965164</v>
+        <v>320.9756294965152</v>
       </c>
       <c r="P44" t="n">
         <v>273.9452737416343</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.270143994783901</v>
+        <v>35.0936089049379</v>
       </c>
       <c r="J45" t="n">
-        <v>96.29954514920607</v>
+        <v>96.29954514920601</v>
       </c>
       <c r="K45" t="n">
-        <v>164.5912610258725</v>
+        <v>164.5912610258724</v>
       </c>
       <c r="L45" t="n">
-        <v>221.3132622724779</v>
+        <v>221.3132622724778</v>
       </c>
       <c r="M45" t="n">
-        <v>258.2621383997787</v>
+        <v>258.2621383997786</v>
       </c>
       <c r="N45" t="n">
-        <v>265.0975687202438</v>
+        <v>265.0975687202437</v>
       </c>
       <c r="O45" t="n">
         <v>242.5124843651167</v>
       </c>
       <c r="P45" t="n">
-        <v>194.6376489812976</v>
+        <v>168.8141840711442</v>
       </c>
       <c r="Q45" t="n">
         <v>130.1101138304857</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.41523989577617</v>
+        <v>60.41523989577613</v>
       </c>
       <c r="K46" t="n">
-        <v>376.8145904732111</v>
+        <v>376.814590473211</v>
       </c>
       <c r="L46" t="n">
-        <v>127.0452402283045</v>
+        <v>412.7314636041189</v>
       </c>
       <c r="M46" t="n">
         <v>133.9513927636451</v>
       </c>
       <c r="N46" t="n">
-        <v>577.4923918354104</v>
+        <v>130.7663280398097</v>
       </c>
       <c r="O46" t="n">
-        <v>544.6922016395713</v>
+        <v>544.6922016395711</v>
       </c>
       <c r="P46" t="n">
         <v>454.3685306796938</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.40704934102223</v>
+        <v>241.4468897608081</v>
       </c>
       <c r="R46" t="n">
-        <v>17.2191133185379</v>
+        <v>17.21911331853788</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
